--- a/data/betting/20202021/dom_schedule_20202021_complete.xlsx
+++ b/data/betting/20202021/dom_schedule_20202021_complete.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD/Users/colinwelsh/Documents/dev/hockey/data/betting/20202021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ColinWelsh/Documents/dev/hockey/data/betting/20202021/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5514DD-232E-1A44-BA28-42B03C8600BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="460" windowWidth="12080" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="51200" yWindow="5440" windowWidth="14440" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dom_schedule_20202021_complete." sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="516">
   <si>
     <t>game_id</t>
   </si>
@@ -1577,8 +1586,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1644,6 +1653,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1911,19 +1923,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2020020001</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2020020002</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2020020003</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2020020004</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2020020005</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2020020006</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2020020007</v>
       </c>
@@ -2251,7 +2263,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2020020008</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2020020009</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2020020010</v>
       </c>
@@ -2374,7 +2386,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2020020011</v>
       </c>
@@ -2415,7 +2427,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2020020012</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2020020013</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2020020014</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>2020020015</v>
       </c>
@@ -2579,7 +2591,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2020020016</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2020020017</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>2020020018</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>2020020019</v>
       </c>
@@ -2743,7 +2755,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>2020020020</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2020020021</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>2020020022</v>
       </c>
@@ -2866,7 +2878,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>2020020023</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>2020020024</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>2020020025</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2020020026</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>2020020027</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>2020020028</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>2020020029</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>2020020030</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>2020020031</v>
       </c>
@@ -3243,7 +3255,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>2020020032</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>2020020033</v>
       </c>
@@ -3326,7 +3338,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>2020020034</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>2020020035</v>
       </c>
@@ -3410,7 +3422,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>2020020036</v>
       </c>
@@ -3452,7 +3464,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>2020020037</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>2020020038</v>
       </c>
@@ -3536,7 +3548,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>2020020039</v>
       </c>
@@ -3578,7 +3590,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>2020020040</v>
       </c>
@@ -3620,7 +3632,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>2020020041</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>2020020042</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>2020020043</v>
       </c>
@@ -3746,7 +3758,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2020020044</v>
       </c>
@@ -3788,7 +3800,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>2020020045</v>
       </c>
@@ -3830,7 +3842,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>2020020046</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>2020020047</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>2020020048</v>
       </c>
@@ -3955,7 +3967,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>2020020049</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>2020020050</v>
       </c>
@@ -4039,7 +4051,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>2020020051</v>
       </c>
@@ -4081,7 +4093,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>2020020052</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>2020020053</v>
       </c>
@@ -4164,7 +4176,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>2020020054</v>
       </c>
@@ -4206,7 +4218,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>2020020055</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>2020020056</v>
       </c>
@@ -4290,7 +4302,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>2020020057</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>2020020058</v>
       </c>
@@ -4374,7 +4386,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>2020020059</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>2020020060</v>
       </c>
@@ -4458,7 +4470,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>2020020061</v>
       </c>
@@ -4484,7 +4496,7 @@
         <v>34</v>
       </c>
       <c r="I62">
-        <f t="shared" ref="I62:I67" si="1">1-F62</f>
+        <f t="shared" ref="I62" si="1">1-F62</f>
         <v>0.54699999999999993</v>
       </c>
       <c r="J62">
@@ -4500,7 +4512,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>2020020062</v>
       </c>
@@ -4541,7 +4553,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>2020020063</v>
       </c>
@@ -4583,7 +4595,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>2020020064</v>
       </c>
@@ -4609,7 +4621,7 @@
         <v>57</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I67" si="2">1-F65</f>
+        <f t="shared" ref="I65:I92" si="2">1-F65</f>
         <v>0.52100000000000002</v>
       </c>
       <c r="J65">
@@ -4625,7 +4637,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>2020020065</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>2020020066</v>
       </c>
@@ -4709,7 +4721,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>2020020067</v>
       </c>
@@ -4725,20 +4737,21 @@
       <c r="E68" t="s">
         <v>30</v>
       </c>
-      <c r="F68" t="s">
-        <v>515</v>
-      </c>
-      <c r="G68" t="s">
-        <v>515</v>
+      <c r="F68">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G68">
+        <v>-122</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
       </c>
-      <c r="I68" t="s">
-        <v>515</v>
-      </c>
-      <c r="J68" t="s">
-        <v>515</v>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J68">
+        <v>104</v>
       </c>
       <c r="K68" t="s">
         <v>87</v>
@@ -4750,7 +4763,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>2020020068</v>
       </c>
@@ -4766,20 +4779,21 @@
       <c r="E69" t="s">
         <v>35</v>
       </c>
-      <c r="F69" t="s">
-        <v>515</v>
-      </c>
-      <c r="G69" t="s">
-        <v>515</v>
+      <c r="F69">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G69">
+        <v>126</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
       </c>
-      <c r="I69" t="s">
-        <v>515</v>
-      </c>
-      <c r="J69" t="s">
-        <v>515</v>
+      <c r="I69">
+        <f t="shared" si="2"/>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="J69">
+        <v>-148</v>
       </c>
       <c r="K69" t="s">
         <v>87</v>
@@ -4791,7 +4805,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>2020020069</v>
       </c>
@@ -4807,20 +4821,21 @@
       <c r="E70" t="s">
         <v>40</v>
       </c>
-      <c r="F70" t="s">
-        <v>515</v>
-      </c>
-      <c r="G70" t="s">
-        <v>515</v>
+      <c r="F70">
+        <v>0.46</v>
+      </c>
+      <c r="G70">
+        <v>124</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
       </c>
-      <c r="I70" t="s">
-        <v>515</v>
-      </c>
-      <c r="J70" t="s">
-        <v>515</v>
+      <c r="I70">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="J70">
+        <v>-146</v>
       </c>
       <c r="K70" t="s">
         <v>88</v>
@@ -4832,7 +4847,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>2020020070</v>
       </c>
@@ -4848,20 +4863,21 @@
       <c r="E71" t="s">
         <v>24</v>
       </c>
-      <c r="F71" t="s">
-        <v>515</v>
-      </c>
-      <c r="G71" t="s">
-        <v>515</v>
+      <c r="F71">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G71">
+        <v>130</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
       </c>
-      <c r="I71" t="s">
-        <v>515</v>
-      </c>
-      <c r="J71" t="s">
-        <v>515</v>
+      <c r="I71">
+        <f t="shared" si="2"/>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="J71">
+        <v>-154</v>
       </c>
       <c r="K71" t="s">
         <v>87</v>
@@ -4873,7 +4889,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>2020020071</v>
       </c>
@@ -4889,20 +4905,21 @@
       <c r="E72" t="s">
         <v>48</v>
       </c>
-      <c r="F72" t="s">
-        <v>515</v>
-      </c>
-      <c r="G72" t="s">
-        <v>515</v>
+      <c r="F72">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G72">
+        <v>144</v>
       </c>
       <c r="H72" t="s">
         <v>53</v>
       </c>
-      <c r="I72" t="s">
-        <v>515</v>
-      </c>
-      <c r="J72" t="s">
-        <v>515</v>
+      <c r="I72">
+        <f t="shared" si="2"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="J72">
+        <v>-172</v>
       </c>
       <c r="K72" t="s">
         <v>88</v>
@@ -4914,7 +4931,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>2020020072</v>
       </c>
@@ -4930,20 +4947,21 @@
       <c r="E73" t="s">
         <v>43</v>
       </c>
-      <c r="F73" t="s">
-        <v>515</v>
-      </c>
-      <c r="G73" t="s">
-        <v>515</v>
+      <c r="F73">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G73">
+        <v>-130</v>
       </c>
       <c r="H73" t="s">
         <v>36</v>
       </c>
-      <c r="I73" t="s">
-        <v>515</v>
-      </c>
-      <c r="J73" t="s">
-        <v>515</v>
+      <c r="I73">
+        <f t="shared" si="2"/>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="J73">
+        <v>110</v>
       </c>
       <c r="K73" t="s">
         <v>89</v>
@@ -4955,7 +4973,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>2020020073</v>
       </c>
@@ -4971,20 +4989,21 @@
       <c r="E74" t="s">
         <v>51</v>
       </c>
-      <c r="F74" t="s">
-        <v>515</v>
-      </c>
-      <c r="G74" t="s">
-        <v>515</v>
+      <c r="F74">
+        <v>0.622</v>
+      </c>
+      <c r="G74">
+        <v>-174</v>
       </c>
       <c r="H74" t="s">
         <v>49</v>
       </c>
-      <c r="I74" t="s">
-        <v>515</v>
-      </c>
-      <c r="J74" t="s">
-        <v>515</v>
+      <c r="I74">
+        <f t="shared" si="2"/>
+        <v>0.378</v>
+      </c>
+      <c r="J74">
+        <v>172</v>
       </c>
       <c r="K74" t="s">
         <v>90</v>
@@ -4996,7 +5015,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>2020020074</v>
       </c>
@@ -5012,20 +5031,21 @@
       <c r="E75" t="s">
         <v>27</v>
       </c>
-      <c r="F75" t="s">
-        <v>515</v>
-      </c>
-      <c r="G75" t="s">
-        <v>515</v>
+      <c r="F75">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G75">
+        <v>-200</v>
       </c>
       <c r="H75" t="s">
         <v>50</v>
       </c>
-      <c r="I75" t="s">
-        <v>515</v>
-      </c>
-      <c r="J75" t="s">
-        <v>515</v>
+      <c r="I75">
+        <f t="shared" si="2"/>
+        <v>0.33499999999999996</v>
+      </c>
+      <c r="J75">
+        <v>172</v>
       </c>
       <c r="K75" t="s">
         <v>91</v>
@@ -5037,7 +5057,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>2020020075</v>
       </c>
@@ -5053,20 +5073,21 @@
       <c r="E76" t="s">
         <v>15</v>
       </c>
-      <c r="F76" t="s">
-        <v>515</v>
-      </c>
-      <c r="G76" t="s">
-        <v>515</v>
+      <c r="F76">
+        <v>0.435</v>
+      </c>
+      <c r="G76">
+        <v>132</v>
       </c>
       <c r="H76" t="s">
         <v>32</v>
       </c>
-      <c r="I76" t="s">
-        <v>515</v>
-      </c>
-      <c r="J76" t="s">
-        <v>515</v>
+      <c r="I76">
+        <f t="shared" si="2"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J76">
+        <v>-156</v>
       </c>
       <c r="K76" t="s">
         <v>92</v>
@@ -5078,7 +5099,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>2020020076</v>
       </c>
@@ -5119,7 +5140,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>2020020077</v>
       </c>
@@ -5135,20 +5156,21 @@
       <c r="E78" t="s">
         <v>18</v>
       </c>
-      <c r="F78" t="s">
-        <v>515</v>
-      </c>
-      <c r="G78" t="s">
-        <v>515</v>
+      <c r="F78">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G78">
+        <v>-164</v>
       </c>
       <c r="H78" t="s">
         <v>42</v>
       </c>
-      <c r="I78" t="s">
-        <v>515</v>
-      </c>
-      <c r="J78" t="s">
-        <v>515</v>
+      <c r="I78">
+        <f t="shared" si="2"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J78">
+        <v>138</v>
       </c>
       <c r="K78" t="s">
         <v>92</v>
@@ -5160,7 +5182,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>2020020078</v>
       </c>
@@ -5176,20 +5198,21 @@
       <c r="E79" t="s">
         <v>54</v>
       </c>
-      <c r="F79" t="s">
-        <v>515</v>
-      </c>
-      <c r="G79" t="s">
-        <v>515</v>
+      <c r="F79">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G79">
+        <v>176</v>
       </c>
       <c r="H79" t="s">
         <v>26</v>
       </c>
-      <c r="I79" t="s">
-        <v>515</v>
-      </c>
-      <c r="J79" t="s">
-        <v>515</v>
+      <c r="I79">
+        <f t="shared" si="2"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J79">
+        <v>-210</v>
       </c>
       <c r="K79" t="s">
         <v>94</v>
@@ -5201,7 +5224,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>2020020079</v>
       </c>
@@ -5217,20 +5240,21 @@
       <c r="E80" t="s">
         <v>57</v>
       </c>
-      <c r="F80" t="s">
-        <v>515</v>
-      </c>
-      <c r="G80" t="s">
-        <v>515</v>
+      <c r="F80">
+        <v>0.38</v>
+      </c>
+      <c r="G80">
+        <v>120</v>
       </c>
       <c r="H80" t="s">
         <v>46</v>
       </c>
-      <c r="I80" t="s">
-        <v>515</v>
-      </c>
-      <c r="J80" t="s">
-        <v>515</v>
+      <c r="I80">
+        <f t="shared" si="2"/>
+        <v>0.62</v>
+      </c>
+      <c r="J80">
+        <v>-142</v>
       </c>
       <c r="K80" t="s">
         <v>95</v>
@@ -5242,7 +5266,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>2020020080</v>
       </c>
@@ -5258,20 +5282,21 @@
       <c r="E81" t="s">
         <v>20</v>
       </c>
-      <c r="F81" t="s">
-        <v>515</v>
-      </c>
-      <c r="G81" t="s">
-        <v>515</v>
+      <c r="F81">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G81">
+        <v>-164</v>
       </c>
       <c r="H81" t="s">
         <v>23</v>
       </c>
-      <c r="I81" t="s">
-        <v>515</v>
-      </c>
-      <c r="J81" t="s">
-        <v>515</v>
+      <c r="I81">
+        <f t="shared" si="2"/>
+        <v>0.43400000000000005</v>
+      </c>
+      <c r="J81">
+        <v>138</v>
       </c>
       <c r="K81" t="s">
         <v>92</v>
@@ -5283,7 +5308,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>2020020081</v>
       </c>
@@ -5299,20 +5324,21 @@
       <c r="E82" t="s">
         <v>34</v>
       </c>
-      <c r="F82" t="s">
-        <v>515</v>
-      </c>
-      <c r="G82" t="s">
-        <v>515</v>
+      <c r="F82">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G82">
+        <v>-166</v>
       </c>
       <c r="H82" t="s">
         <v>33</v>
       </c>
-      <c r="I82" t="s">
-        <v>515</v>
-      </c>
-      <c r="J82" t="s">
-        <v>515</v>
+      <c r="I82">
+        <f t="shared" si="2"/>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J82">
+        <v>140</v>
       </c>
       <c r="K82" t="s">
         <v>96</v>
@@ -5324,7 +5350,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>2020020082</v>
       </c>
@@ -5340,20 +5366,21 @@
       <c r="E83" t="s">
         <v>30</v>
       </c>
-      <c r="F83" t="s">
-        <v>515</v>
-      </c>
-      <c r="G83" t="s">
-        <v>515</v>
+      <c r="F83">
+        <v>0.504</v>
+      </c>
+      <c r="G83">
+        <v>-126</v>
       </c>
       <c r="H83" t="s">
         <v>29</v>
       </c>
-      <c r="I83" t="s">
-        <v>515</v>
-      </c>
-      <c r="J83" t="s">
-        <v>515</v>
+      <c r="I83">
+        <f t="shared" si="2"/>
+        <v>0.496</v>
+      </c>
+      <c r="J83">
+        <v>108</v>
       </c>
       <c r="K83" t="s">
         <v>97</v>
@@ -5365,7 +5392,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>2020020083</v>
       </c>
@@ -5381,20 +5408,21 @@
       <c r="E84" t="s">
         <v>35</v>
       </c>
-      <c r="F84" t="s">
-        <v>515</v>
-      </c>
-      <c r="G84" t="s">
-        <v>515</v>
+      <c r="F84">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G84">
+        <v>116</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
       </c>
-      <c r="I84" t="s">
-        <v>515</v>
-      </c>
-      <c r="J84" t="s">
-        <v>515</v>
+      <c r="I84">
+        <f t="shared" si="2"/>
+        <v>0.53299999999999992</v>
+      </c>
+      <c r="J84">
+        <v>-136</v>
       </c>
       <c r="K84" t="s">
         <v>96</v>
@@ -5406,7 +5434,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>2020020084</v>
       </c>
@@ -5422,20 +5450,21 @@
       <c r="E85" t="s">
         <v>40</v>
       </c>
-      <c r="F85" t="s">
-        <v>515</v>
-      </c>
-      <c r="G85" t="s">
-        <v>515</v>
+      <c r="F85">
+        <v>0.443</v>
+      </c>
+      <c r="G85">
+        <v>118</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
       </c>
-      <c r="I85" t="s">
-        <v>515</v>
-      </c>
-      <c r="J85" t="s">
-        <v>515</v>
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>0.55699999999999994</v>
+      </c>
+      <c r="J85">
+        <v>-138</v>
       </c>
       <c r="K85" t="s">
         <v>98</v>
@@ -5447,7 +5476,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>2020020085</v>
       </c>
@@ -5463,20 +5492,21 @@
       <c r="E86" t="s">
         <v>54</v>
       </c>
-      <c r="F86" t="s">
-        <v>515</v>
-      </c>
-      <c r="G86" t="s">
-        <v>515</v>
+      <c r="F86">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G86">
+        <v>172</v>
       </c>
       <c r="H86" t="s">
         <v>26</v>
       </c>
-      <c r="I86" t="s">
-        <v>515</v>
-      </c>
-      <c r="J86" t="s">
-        <v>515</v>
+      <c r="I86">
+        <f t="shared" si="2"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J86">
+        <v>-205</v>
       </c>
       <c r="K86" t="s">
         <v>99</v>
@@ -5488,7 +5518,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>2020020086</v>
       </c>
@@ -5504,20 +5534,21 @@
       <c r="E87" t="s">
         <v>24</v>
       </c>
-      <c r="F87" t="s">
-        <v>515</v>
-      </c>
-      <c r="G87" t="s">
-        <v>515</v>
+      <c r="F87">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G87">
+        <v>-136</v>
       </c>
       <c r="H87" t="s">
         <v>46</v>
       </c>
-      <c r="I87" t="s">
-        <v>515</v>
-      </c>
-      <c r="J87" t="s">
-        <v>515</v>
+      <c r="I87">
+        <f t="shared" si="2"/>
+        <v>0.43899999999999995</v>
+      </c>
+      <c r="J87">
+        <v>116</v>
       </c>
       <c r="K87" t="s">
         <v>100</v>
@@ -5529,7 +5560,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>2020020087</v>
       </c>
@@ -5545,20 +5576,21 @@
       <c r="E88" t="s">
         <v>21</v>
       </c>
-      <c r="F88" t="s">
-        <v>515</v>
-      </c>
-      <c r="G88" t="s">
-        <v>515</v>
+      <c r="F88">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G88">
+        <v>-102</v>
       </c>
       <c r="H88" t="s">
         <v>45</v>
       </c>
-      <c r="I88" t="s">
-        <v>515</v>
-      </c>
-      <c r="J88" t="s">
-        <v>515</v>
+      <c r="I88">
+        <f t="shared" si="2"/>
+        <v>0.46599999999999997</v>
+      </c>
+      <c r="J88">
+        <v>-116</v>
       </c>
       <c r="K88" t="s">
         <v>101</v>
@@ -5570,7 +5602,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>2020020088</v>
       </c>
@@ -5586,20 +5618,21 @@
       <c r="E89" t="s">
         <v>48</v>
       </c>
-      <c r="F89" t="s">
-        <v>515</v>
-      </c>
-      <c r="G89" t="s">
-        <v>515</v>
+      <c r="F89">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G89">
+        <v>138</v>
       </c>
       <c r="H89" t="s">
         <v>53</v>
       </c>
-      <c r="I89" t="s">
-        <v>515</v>
-      </c>
-      <c r="J89" t="s">
-        <v>515</v>
+      <c r="I89">
+        <f t="shared" si="2"/>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J89">
+        <v>-164</v>
       </c>
       <c r="K89" t="s">
         <v>99</v>
@@ -5611,7 +5644,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>2020020089</v>
       </c>
@@ -5627,20 +5660,21 @@
       <c r="E90" t="s">
         <v>43</v>
       </c>
-      <c r="F90" t="s">
-        <v>515</v>
-      </c>
-      <c r="G90" t="s">
-        <v>515</v>
+      <c r="F90">
+        <v>0.501</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
       </c>
       <c r="H90" t="s">
         <v>36</v>
       </c>
-      <c r="I90" t="s">
-        <v>515</v>
-      </c>
-      <c r="J90" t="s">
-        <v>515</v>
+      <c r="I90">
+        <f t="shared" si="2"/>
+        <v>0.499</v>
+      </c>
+      <c r="J90">
+        <v>-118</v>
       </c>
       <c r="K90" t="s">
         <v>99</v>
@@ -5652,7 +5686,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>2020020090</v>
       </c>
@@ -5668,20 +5702,21 @@
       <c r="E91" t="s">
         <v>51</v>
       </c>
-      <c r="F91" t="s">
-        <v>515</v>
-      </c>
-      <c r="G91" t="s">
-        <v>515</v>
+      <c r="F91">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G91">
+        <v>-176</v>
       </c>
       <c r="H91" t="s">
         <v>49</v>
       </c>
-      <c r="I91" t="s">
-        <v>515</v>
-      </c>
-      <c r="J91" t="s">
-        <v>515</v>
+      <c r="I91">
+        <f t="shared" si="2"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J91">
+        <v>148</v>
       </c>
       <c r="K91" t="s">
         <v>101</v>
@@ -5693,7 +5728,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>2020020091</v>
       </c>
@@ -5709,20 +5744,21 @@
       <c r="E92" t="s">
         <v>27</v>
       </c>
-      <c r="F92" t="s">
-        <v>515</v>
-      </c>
-      <c r="G92" t="s">
-        <v>515</v>
+      <c r="F92">
+        <v>0.38</v>
+      </c>
+      <c r="G92">
+        <v>-196</v>
       </c>
       <c r="H92" t="s">
         <v>50</v>
       </c>
-      <c r="I92" t="s">
-        <v>515</v>
-      </c>
-      <c r="J92" t="s">
-        <v>515</v>
+      <c r="I92">
+        <f t="shared" si="2"/>
+        <v>0.62</v>
+      </c>
+      <c r="J92">
+        <v>164</v>
       </c>
       <c r="K92" t="s">
         <v>99</v>
@@ -5734,7 +5770,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>2020020092</v>
       </c>
@@ -5775,7 +5811,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>2020020093</v>
       </c>
@@ -5816,7 +5852,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>2020020094</v>
       </c>
@@ -5857,7 +5893,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>2020020095</v>
       </c>
@@ -5898,7 +5934,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>2020020096</v>
       </c>
@@ -5939,7 +5975,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>2020020097</v>
       </c>
@@ -5980,7 +6016,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>2020020098</v>
       </c>
@@ -6021,7 +6057,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>2020020099</v>
       </c>
@@ -6062,7 +6098,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>2020020100</v>
       </c>
@@ -6103,7 +6139,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>2020020101</v>
       </c>
@@ -6144,7 +6180,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>2020020102</v>
       </c>
@@ -6185,7 +6221,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>2020020103</v>
       </c>
@@ -6226,7 +6262,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>2020020104</v>
       </c>
@@ -6267,7 +6303,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>2020020105</v>
       </c>
@@ -6308,7 +6344,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>2020020106</v>
       </c>
@@ -6349,7 +6385,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>2020020107</v>
       </c>
@@ -6390,7 +6426,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>2020020108</v>
       </c>
@@ -6431,7 +6467,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>2020020109</v>
       </c>
@@ -6472,7 +6508,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>2020020110</v>
       </c>
@@ -6513,7 +6549,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>2020020111</v>
       </c>
@@ -6554,7 +6590,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>2020020112</v>
       </c>
@@ -6595,7 +6631,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>2020020113</v>
       </c>
@@ -6636,7 +6672,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>2020020114</v>
       </c>
@@ -6677,7 +6713,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>2020020115</v>
       </c>
@@ -6718,7 +6754,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>2020020116</v>
       </c>
@@ -6759,7 +6795,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>2020020117</v>
       </c>
@@ -6800,7 +6836,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>2020020118</v>
       </c>
@@ -6841,7 +6877,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>2020020119</v>
       </c>
@@ -6882,7 +6918,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>2020020120</v>
       </c>
@@ -6923,7 +6959,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>2020020121</v>
       </c>
@@ -6964,7 +7000,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>2020020122</v>
       </c>
@@ -7005,7 +7041,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>2020020123</v>
       </c>
@@ -7046,7 +7082,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>2020020124</v>
       </c>
@@ -7087,7 +7123,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>2020020125</v>
       </c>
@@ -7128,7 +7164,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>2020020126</v>
       </c>
@@ -7169,7 +7205,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>2020020127</v>
       </c>
@@ -7210,7 +7246,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>2020020128</v>
       </c>
@@ -7251,7 +7287,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>2020020129</v>
       </c>
@@ -7292,7 +7328,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>2020020130</v>
       </c>
@@ -7333,7 +7369,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>2020020131</v>
       </c>
@@ -7374,7 +7410,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>2020020132</v>
       </c>
@@ -7415,7 +7451,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>2020020133</v>
       </c>
@@ -7456,7 +7492,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>2020020134</v>
       </c>
@@ -7497,7 +7533,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>2020020135</v>
       </c>
@@ -7538,7 +7574,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>2020020136</v>
       </c>
@@ -7579,7 +7615,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>2020020137</v>
       </c>
@@ -7620,7 +7656,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>2020020138</v>
       </c>
@@ -7661,7 +7697,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>2020020139</v>
       </c>
@@ -7702,7 +7738,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>2020020140</v>
       </c>
@@ -7743,7 +7779,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>2020020141</v>
       </c>
@@ -7784,7 +7820,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>2020020142</v>
       </c>
@@ -7825,7 +7861,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>2020020143</v>
       </c>
@@ -7866,7 +7902,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>2020020144</v>
       </c>
@@ -7907,7 +7943,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>2020020145</v>
       </c>
@@ -7948,7 +7984,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>2020020146</v>
       </c>
@@ -7989,7 +8025,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>2020020147</v>
       </c>
@@ -8030,7 +8066,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>2020020148</v>
       </c>
@@ -8071,7 +8107,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>2020020149</v>
       </c>
@@ -8112,7 +8148,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>2020020150</v>
       </c>
@@ -8153,7 +8189,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>2020020151</v>
       </c>
@@ -8194,7 +8230,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>2020020152</v>
       </c>
@@ -8235,7 +8271,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>2020020153</v>
       </c>
@@ -8276,7 +8312,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13">
       <c r="A155">
         <v>2020020154</v>
       </c>
@@ -8317,7 +8353,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>2020020155</v>
       </c>
@@ -8358,7 +8394,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13">
       <c r="A157">
         <v>2020020156</v>
       </c>
@@ -8399,7 +8435,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>2020020157</v>
       </c>
@@ -8440,7 +8476,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13">
       <c r="A159">
         <v>2020020158</v>
       </c>
@@ -8481,7 +8517,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13">
       <c r="A160">
         <v>2020020159</v>
       </c>
@@ -8522,7 +8558,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>2020020160</v>
       </c>
@@ -8563,7 +8599,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>2020020161</v>
       </c>
@@ -8604,7 +8640,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>2020020162</v>
       </c>
@@ -8645,7 +8681,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>2020020163</v>
       </c>
@@ -8686,7 +8722,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>2020020164</v>
       </c>
@@ -8727,7 +8763,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>2020020165</v>
       </c>
@@ -8768,7 +8804,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>2020020166</v>
       </c>
@@ -8809,7 +8845,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>2020020167</v>
       </c>
@@ -8850,7 +8886,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13">
       <c r="A169">
         <v>2020020168</v>
       </c>
@@ -8891,7 +8927,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>2020020169</v>
       </c>
@@ -8932,7 +8968,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13">
       <c r="A171">
         <v>2020020170</v>
       </c>
@@ -8973,7 +9009,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13">
       <c r="A172">
         <v>2020020171</v>
       </c>
@@ -9014,7 +9050,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13">
       <c r="A173">
         <v>2020020172</v>
       </c>
@@ -9055,7 +9091,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13">
       <c r="A174">
         <v>2020020173</v>
       </c>
@@ -9096,7 +9132,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13">
       <c r="A175">
         <v>2020020174</v>
       </c>
@@ -9137,7 +9173,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>2020020175</v>
       </c>
@@ -9178,7 +9214,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13">
       <c r="A177">
         <v>2020020176</v>
       </c>
@@ -9219,7 +9255,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13">
       <c r="A178">
         <v>2020020177</v>
       </c>
@@ -9260,7 +9296,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13">
       <c r="A179">
         <v>2020020178</v>
       </c>
@@ -9301,7 +9337,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13">
       <c r="A180">
         <v>2020020179</v>
       </c>
@@ -9342,7 +9378,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13">
       <c r="A181">
         <v>2020020180</v>
       </c>
@@ -9383,7 +9419,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13">
       <c r="A182">
         <v>2020020181</v>
       </c>
@@ -9424,7 +9460,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13">
       <c r="A183">
         <v>2020020182</v>
       </c>
@@ -9465,7 +9501,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13">
       <c r="A184">
         <v>2020020183</v>
       </c>
@@ -9506,7 +9542,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13">
       <c r="A185">
         <v>2020020184</v>
       </c>
@@ -9547,7 +9583,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13">
       <c r="A186">
         <v>2020020185</v>
       </c>
@@ -9588,7 +9624,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13">
       <c r="A187">
         <v>2020020186</v>
       </c>
@@ -9629,7 +9665,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>2020020187</v>
       </c>
@@ -9670,7 +9706,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13">
       <c r="A189">
         <v>2020020188</v>
       </c>
@@ -9711,7 +9747,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13">
       <c r="A190">
         <v>2020020189</v>
       </c>
@@ -9752,7 +9788,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13">
       <c r="A191">
         <v>2020020190</v>
       </c>
@@ -9793,7 +9829,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13">
       <c r="A192">
         <v>2020020191</v>
       </c>
@@ -9834,7 +9870,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13">
       <c r="A193">
         <v>2020020192</v>
       </c>
@@ -9875,7 +9911,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13">
       <c r="A194">
         <v>2020020193</v>
       </c>
@@ -9916,7 +9952,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13">
       <c r="A195">
         <v>2020020194</v>
       </c>
@@ -9957,7 +9993,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13">
       <c r="A196">
         <v>2020020195</v>
       </c>
@@ -9998,7 +10034,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13">
       <c r="A197">
         <v>2020020196</v>
       </c>
@@ -10039,7 +10075,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13">
       <c r="A198">
         <v>2020020197</v>
       </c>
@@ -10080,7 +10116,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13">
       <c r="A199">
         <v>2020020198</v>
       </c>
@@ -10121,7 +10157,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13">
       <c r="A200">
         <v>2020020199</v>
       </c>
@@ -10162,7 +10198,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13">
       <c r="A201">
         <v>2020020200</v>
       </c>
@@ -10203,7 +10239,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13">
       <c r="A202">
         <v>2020020201</v>
       </c>
@@ -10244,7 +10280,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13">
       <c r="A203">
         <v>2020020202</v>
       </c>
@@ -10285,7 +10321,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13">
       <c r="A204">
         <v>2020020203</v>
       </c>
@@ -10326,7 +10362,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13">
       <c r="A205">
         <v>2020020204</v>
       </c>
@@ -10367,7 +10403,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13">
       <c r="A206">
         <v>2020020205</v>
       </c>
@@ -10408,7 +10444,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13">
       <c r="A207">
         <v>2020020206</v>
       </c>
@@ -10449,7 +10485,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13">
       <c r="A208">
         <v>2020020207</v>
       </c>
@@ -10490,7 +10526,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13">
       <c r="A209">
         <v>2020020208</v>
       </c>
@@ -10531,7 +10567,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13">
       <c r="A210">
         <v>2020020209</v>
       </c>
@@ -10572,7 +10608,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13">
       <c r="A211">
         <v>2020020210</v>
       </c>
@@ -10613,7 +10649,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13">
       <c r="A212">
         <v>2020020211</v>
       </c>
@@ -10654,7 +10690,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13">
       <c r="A213">
         <v>2020020212</v>
       </c>
@@ -10695,7 +10731,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13">
       <c r="A214">
         <v>2020020213</v>
       </c>
@@ -10736,7 +10772,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13">
       <c r="A215">
         <v>2020020214</v>
       </c>
@@ -10777,7 +10813,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13">
       <c r="A216">
         <v>2020020215</v>
       </c>
@@ -10818,7 +10854,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13">
       <c r="A217">
         <v>2020020216</v>
       </c>
@@ -10859,7 +10895,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13">
       <c r="A218">
         <v>2020020217</v>
       </c>
@@ -10900,7 +10936,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13">
       <c r="A219">
         <v>2020020218</v>
       </c>
@@ -10941,7 +10977,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13">
       <c r="A220">
         <v>2020020219</v>
       </c>
@@ -10982,7 +11018,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13">
       <c r="A221">
         <v>2020020220</v>
       </c>
@@ -11023,7 +11059,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13">
       <c r="A222">
         <v>2020020221</v>
       </c>
@@ -11064,7 +11100,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13">
       <c r="A223">
         <v>2020020222</v>
       </c>
@@ -11105,7 +11141,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13">
       <c r="A224">
         <v>2020020223</v>
       </c>
@@ -11146,7 +11182,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13">
       <c r="A225">
         <v>2020020224</v>
       </c>
@@ -11187,7 +11223,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13">
       <c r="A226">
         <v>2020020225</v>
       </c>
@@ -11228,7 +11264,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13">
       <c r="A227">
         <v>2020020226</v>
       </c>
@@ -11269,7 +11305,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13">
       <c r="A228">
         <v>2020020227</v>
       </c>
@@ -11310,7 +11346,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13">
       <c r="A229">
         <v>2020020228</v>
       </c>
@@ -11351,7 +11387,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13">
       <c r="A230">
         <v>2020020229</v>
       </c>
@@ -11392,7 +11428,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13">
       <c r="A231">
         <v>2020020230</v>
       </c>
@@ -11433,7 +11469,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13">
       <c r="A232">
         <v>2020020231</v>
       </c>
@@ -11474,7 +11510,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13">
       <c r="A233">
         <v>2020020232</v>
       </c>
@@ -11515,7 +11551,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13">
       <c r="A234">
         <v>2020020233</v>
       </c>
@@ -11556,7 +11592,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13">
       <c r="A235">
         <v>2020020234</v>
       </c>
@@ -11597,7 +11633,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13">
       <c r="A236">
         <v>2020020235</v>
       </c>
@@ -11638,7 +11674,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13">
       <c r="A237">
         <v>2020020236</v>
       </c>
@@ -11679,7 +11715,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13">
       <c r="A238">
         <v>2020020237</v>
       </c>
@@ -11720,7 +11756,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13">
       <c r="A239">
         <v>2020020238</v>
       </c>
@@ -11761,7 +11797,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13">
       <c r="A240">
         <v>2020020239</v>
       </c>
@@ -11802,7 +11838,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13">
       <c r="A241">
         <v>2020020240</v>
       </c>
@@ -11843,7 +11879,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13">
       <c r="A242">
         <v>2020020241</v>
       </c>
@@ -11884,7 +11920,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13">
       <c r="A243">
         <v>2020020242</v>
       </c>
@@ -11925,7 +11961,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13">
       <c r="A244">
         <v>2020020243</v>
       </c>
@@ -11966,7 +12002,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13">
       <c r="A245">
         <v>2020020244</v>
       </c>
@@ -12007,7 +12043,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13">
       <c r="A246">
         <v>2020020245</v>
       </c>
@@ -12048,7 +12084,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13">
       <c r="A247">
         <v>2020020246</v>
       </c>
@@ -12089,7 +12125,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13">
       <c r="A248">
         <v>2020020247</v>
       </c>
@@ -12130,7 +12166,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13">
       <c r="A249">
         <v>2020020248</v>
       </c>
@@ -12171,7 +12207,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13">
       <c r="A250">
         <v>2020020249</v>
       </c>
@@ -12212,7 +12248,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13">
       <c r="A251">
         <v>2020020250</v>
       </c>
@@ -12253,7 +12289,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13">
       <c r="A252">
         <v>2020020251</v>
       </c>
@@ -12294,7 +12330,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13">
       <c r="A253">
         <v>2020020252</v>
       </c>
@@ -12335,7 +12371,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13">
       <c r="A254">
         <v>2020020253</v>
       </c>
@@ -12376,7 +12412,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13">
       <c r="A255">
         <v>2020020254</v>
       </c>
@@ -12417,7 +12453,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13">
       <c r="A256">
         <v>2020020255</v>
       </c>
@@ -12458,7 +12494,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13">
       <c r="A257">
         <v>2020020256</v>
       </c>
@@ -12499,7 +12535,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13">
       <c r="A258">
         <v>2020020257</v>
       </c>
@@ -12540,7 +12576,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13">
       <c r="A259">
         <v>2020020258</v>
       </c>
@@ -12581,7 +12617,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13">
       <c r="A260">
         <v>2020020259</v>
       </c>
@@ -12622,7 +12658,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13">
       <c r="A261">
         <v>2020020260</v>
       </c>
@@ -12663,7 +12699,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13">
       <c r="A262">
         <v>2020020261</v>
       </c>
@@ -12704,7 +12740,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13">
       <c r="A263">
         <v>2020020262</v>
       </c>
@@ -12745,7 +12781,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13">
       <c r="A264">
         <v>2020020263</v>
       </c>
@@ -12786,7 +12822,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13">
       <c r="A265">
         <v>2020020264</v>
       </c>
@@ -12827,7 +12863,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13">
       <c r="A266">
         <v>2020020265</v>
       </c>
@@ -12868,7 +12904,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13">
       <c r="A267">
         <v>2020020266</v>
       </c>
@@ -12909,7 +12945,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13">
       <c r="A268">
         <v>2020020267</v>
       </c>
@@ -12950,7 +12986,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13">
       <c r="A269">
         <v>2020020268</v>
       </c>
@@ -12991,7 +13027,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13">
       <c r="A270">
         <v>2020020269</v>
       </c>
@@ -13032,7 +13068,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13">
       <c r="A271">
         <v>2020020270</v>
       </c>
@@ -13073,7 +13109,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13">
       <c r="A272">
         <v>2020020271</v>
       </c>
@@ -13114,7 +13150,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13">
       <c r="A273">
         <v>2020020272</v>
       </c>
@@ -13155,7 +13191,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13">
       <c r="A274">
         <v>2020020273</v>
       </c>
@@ -13196,7 +13232,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13">
       <c r="A275">
         <v>2020020274</v>
       </c>
@@ -13237,7 +13273,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13">
       <c r="A276">
         <v>2020020275</v>
       </c>
@@ -13278,7 +13314,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13">
       <c r="A277">
         <v>2020020276</v>
       </c>
@@ -13319,7 +13355,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13">
       <c r="A278">
         <v>2020020277</v>
       </c>
@@ -13360,7 +13396,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13">
       <c r="A279">
         <v>2020020278</v>
       </c>
@@ -13401,7 +13437,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13">
       <c r="A280">
         <v>2020020279</v>
       </c>
@@ -13442,7 +13478,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13">
       <c r="A281">
         <v>2020020280</v>
       </c>
@@ -13483,7 +13519,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13">
       <c r="A282">
         <v>2020020281</v>
       </c>
@@ -13524,7 +13560,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13">
       <c r="A283">
         <v>2020020282</v>
       </c>
@@ -13565,7 +13601,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13">
       <c r="A284">
         <v>2020020283</v>
       </c>
@@ -13606,7 +13642,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13">
       <c r="A285">
         <v>2020020284</v>
       </c>
@@ -13647,7 +13683,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13">
       <c r="A286">
         <v>2020020285</v>
       </c>
@@ -13688,7 +13724,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13">
       <c r="A287">
         <v>2020020286</v>
       </c>
@@ -13729,7 +13765,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13">
       <c r="A288">
         <v>2020020287</v>
       </c>
@@ -13770,7 +13806,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13">
       <c r="A289">
         <v>2020020288</v>
       </c>
@@ -13811,7 +13847,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13">
       <c r="A290">
         <v>2020020289</v>
       </c>
@@ -13852,7 +13888,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13">
       <c r="A291">
         <v>2020020290</v>
       </c>
@@ -13893,7 +13929,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13">
       <c r="A292">
         <v>2020020291</v>
       </c>
@@ -13934,7 +13970,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13">
       <c r="A293">
         <v>2020020292</v>
       </c>
@@ -13975,7 +14011,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13">
       <c r="A294">
         <v>2020020293</v>
       </c>
@@ -14016,7 +14052,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13">
       <c r="A295">
         <v>2020020294</v>
       </c>
@@ -14057,7 +14093,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13">
       <c r="A296">
         <v>2020020295</v>
       </c>
@@ -14098,7 +14134,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13">
       <c r="A297">
         <v>2020020296</v>
       </c>
@@ -14139,7 +14175,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13">
       <c r="A298">
         <v>2020020297</v>
       </c>
@@ -14180,7 +14216,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13">
       <c r="A299">
         <v>2020020298</v>
       </c>
@@ -14221,7 +14257,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13">
       <c r="A300">
         <v>2020020299</v>
       </c>
@@ -14262,7 +14298,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13">
       <c r="A301">
         <v>2020020300</v>
       </c>
@@ -14303,7 +14339,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13">
       <c r="A302">
         <v>2020020301</v>
       </c>
@@ -14344,7 +14380,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>2020020302</v>
       </c>
@@ -14385,7 +14421,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13">
       <c r="A304">
         <v>2020020303</v>
       </c>
@@ -14426,7 +14462,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13">
       <c r="A305">
         <v>2020020304</v>
       </c>
@@ -14467,7 +14503,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13">
       <c r="A306">
         <v>2020020305</v>
       </c>
@@ -14508,7 +14544,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13">
       <c r="A307">
         <v>2020020306</v>
       </c>
@@ -14549,7 +14585,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13">
       <c r="A308">
         <v>2020020307</v>
       </c>
@@ -14590,7 +14626,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13">
       <c r="A309">
         <v>2020020308</v>
       </c>
@@ -14631,7 +14667,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13">
       <c r="A310">
         <v>2020020309</v>
       </c>
@@ -14672,7 +14708,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13">
       <c r="A311">
         <v>2020020310</v>
       </c>
@@ -14713,7 +14749,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13">
       <c r="A312">
         <v>2020020311</v>
       </c>
@@ -14754,7 +14790,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13">
       <c r="A313">
         <v>2020020312</v>
       </c>
@@ -14795,7 +14831,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13">
       <c r="A314">
         <v>2020020313</v>
       </c>
@@ -14836,7 +14872,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13">
       <c r="A315">
         <v>2020020314</v>
       </c>
@@ -14877,7 +14913,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13">
       <c r="A316">
         <v>2020020315</v>
       </c>
@@ -14918,7 +14954,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13">
       <c r="A317">
         <v>2020020316</v>
       </c>
@@ -14959,7 +14995,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13">
       <c r="A318">
         <v>2020020317</v>
       </c>
@@ -15000,7 +15036,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13">
       <c r="A319">
         <v>2020020318</v>
       </c>
@@ -15041,7 +15077,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13">
       <c r="A320">
         <v>2020020319</v>
       </c>
@@ -15082,7 +15118,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13">
       <c r="A321">
         <v>2020020320</v>
       </c>
@@ -15123,7 +15159,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13">
       <c r="A322">
         <v>2020020321</v>
       </c>
@@ -15164,7 +15200,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13">
       <c r="A323">
         <v>2020020322</v>
       </c>
@@ -15205,7 +15241,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13">
       <c r="A324">
         <v>2020020323</v>
       </c>
@@ -15246,7 +15282,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13">
       <c r="A325">
         <v>2020020324</v>
       </c>
@@ -15287,7 +15323,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13">
       <c r="A326">
         <v>2020020325</v>
       </c>
@@ -15328,7 +15364,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13">
       <c r="A327">
         <v>2020020326</v>
       </c>
@@ -15369,7 +15405,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13">
       <c r="A328">
         <v>2020020327</v>
       </c>
@@ -15410,7 +15446,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13">
       <c r="A329">
         <v>2020020328</v>
       </c>
@@ -15451,7 +15487,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13">
       <c r="A330">
         <v>2020020329</v>
       </c>
@@ -15492,7 +15528,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13">
       <c r="A331">
         <v>2020020330</v>
       </c>
@@ -15533,7 +15569,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13">
       <c r="A332">
         <v>2020020331</v>
       </c>
@@ -15574,7 +15610,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13">
       <c r="A333">
         <v>2020020332</v>
       </c>
@@ -15615,7 +15651,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13">
       <c r="A334">
         <v>2020020333</v>
       </c>
@@ -15656,7 +15692,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13">
       <c r="A335">
         <v>2020020334</v>
       </c>
@@ -15697,7 +15733,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13">
       <c r="A336">
         <v>2020020335</v>
       </c>
@@ -15738,7 +15774,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13">
       <c r="A337">
         <v>2020020336</v>
       </c>
@@ -15779,7 +15815,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13">
       <c r="A338">
         <v>2020020337</v>
       </c>
@@ -15820,7 +15856,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13">
       <c r="A339">
         <v>2020020338</v>
       </c>
@@ -15861,7 +15897,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13">
       <c r="A340">
         <v>2020020339</v>
       </c>
@@ -15902,7 +15938,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13">
       <c r="A341">
         <v>2020020340</v>
       </c>
@@ -15943,7 +15979,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13">
       <c r="A342">
         <v>2020020341</v>
       </c>
@@ -15984,7 +16020,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13">
       <c r="A343">
         <v>2020020342</v>
       </c>
@@ -16025,7 +16061,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13">
       <c r="A344">
         <v>2020020343</v>
       </c>
@@ -16066,7 +16102,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13">
       <c r="A345">
         <v>2020020344</v>
       </c>
@@ -16107,7 +16143,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13">
       <c r="A346">
         <v>2020020345</v>
       </c>
@@ -16148,7 +16184,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13">
       <c r="A347">
         <v>2020020346</v>
       </c>
@@ -16189,7 +16225,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13">
       <c r="A348">
         <v>2020020347</v>
       </c>
@@ -16230,7 +16266,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13">
       <c r="A349">
         <v>2020020348</v>
       </c>
@@ -16271,7 +16307,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13">
       <c r="A350">
         <v>2020020349</v>
       </c>
@@ -16312,7 +16348,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13">
       <c r="A351">
         <v>2020020350</v>
       </c>
@@ -16353,7 +16389,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13">
       <c r="A352">
         <v>2020020351</v>
       </c>
@@ -16394,7 +16430,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13">
       <c r="A353">
         <v>2020020352</v>
       </c>
@@ -16435,7 +16471,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13">
       <c r="A354">
         <v>2020020353</v>
       </c>
@@ -16476,7 +16512,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13">
       <c r="A355">
         <v>2020020354</v>
       </c>
@@ -16517,7 +16553,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13">
       <c r="A356">
         <v>2020020355</v>
       </c>
@@ -16558,7 +16594,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13">
       <c r="A357">
         <v>2020020356</v>
       </c>
@@ -16599,7 +16635,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13">
       <c r="A358">
         <v>2020020357</v>
       </c>
@@ -16640,7 +16676,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13">
       <c r="A359">
         <v>2020020358</v>
       </c>
@@ -16681,7 +16717,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13">
       <c r="A360">
         <v>2020020359</v>
       </c>
@@ -16722,7 +16758,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13">
       <c r="A361">
         <v>2020020360</v>
       </c>
@@ -16763,7 +16799,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13">
       <c r="A362">
         <v>2020020361</v>
       </c>
@@ -16804,7 +16840,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13">
       <c r="A363">
         <v>2020020362</v>
       </c>
@@ -16845,7 +16881,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13">
       <c r="A364">
         <v>2020020363</v>
       </c>
@@ -16886,7 +16922,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13">
       <c r="A365">
         <v>2020020364</v>
       </c>
@@ -16927,7 +16963,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13">
       <c r="A366">
         <v>2020020365</v>
       </c>
@@ -16968,7 +17004,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13">
       <c r="A367">
         <v>2020020366</v>
       </c>
@@ -17009,7 +17045,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13">
       <c r="A368">
         <v>2020020367</v>
       </c>
@@ -17050,7 +17086,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13">
       <c r="A369">
         <v>2020020368</v>
       </c>
@@ -17091,7 +17127,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13">
       <c r="A370">
         <v>2020020369</v>
       </c>
@@ -17132,7 +17168,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13">
       <c r="A371">
         <v>2020020370</v>
       </c>
@@ -17173,7 +17209,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13">
       <c r="A372">
         <v>2020020371</v>
       </c>
@@ -17214,7 +17250,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13">
       <c r="A373">
         <v>2020020372</v>
       </c>
@@ -17255,7 +17291,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13">
       <c r="A374">
         <v>2020020373</v>
       </c>
@@ -17296,7 +17332,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13">
       <c r="A375">
         <v>2020020374</v>
       </c>
@@ -17337,7 +17373,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13">
       <c r="A376">
         <v>2020020375</v>
       </c>
@@ -17378,7 +17414,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13">
       <c r="A377">
         <v>2020020376</v>
       </c>
@@ -17419,7 +17455,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13">
       <c r="A378">
         <v>2020020377</v>
       </c>
@@ -17460,7 +17496,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13">
       <c r="A379">
         <v>2020020378</v>
       </c>
@@ -17501,7 +17537,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13">
       <c r="A380">
         <v>2020020379</v>
       </c>
@@ -17542,7 +17578,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13">
       <c r="A381">
         <v>2020020380</v>
       </c>
@@ -17583,7 +17619,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13">
       <c r="A382">
         <v>2020020381</v>
       </c>
@@ -17624,7 +17660,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13">
       <c r="A383">
         <v>2020020382</v>
       </c>
@@ -17665,7 +17701,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13">
       <c r="A384">
         <v>2020020383</v>
       </c>
@@ -17706,7 +17742,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13">
       <c r="A385">
         <v>2020020384</v>
       </c>
@@ -17747,7 +17783,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13">
       <c r="A386">
         <v>2020020385</v>
       </c>
@@ -17788,7 +17824,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13">
       <c r="A387">
         <v>2020020386</v>
       </c>
@@ -17829,7 +17865,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13">
       <c r="A388">
         <v>2020020387</v>
       </c>
@@ -17870,7 +17906,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13">
       <c r="A389">
         <v>2020020388</v>
       </c>
@@ -17911,7 +17947,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13">
       <c r="A390">
         <v>2020020389</v>
       </c>
@@ -17952,7 +17988,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13">
       <c r="A391">
         <v>2020020390</v>
       </c>
@@ -17993,7 +18029,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13">
       <c r="A392">
         <v>2020020391</v>
       </c>
@@ -18034,7 +18070,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13">
       <c r="A393">
         <v>2020020392</v>
       </c>
@@ -18075,7 +18111,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13">
       <c r="A394">
         <v>2020020393</v>
       </c>
@@ -18116,7 +18152,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13">
       <c r="A395">
         <v>2020020394</v>
       </c>
@@ -18157,7 +18193,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13">
       <c r="A396">
         <v>2020020395</v>
       </c>
@@ -18198,7 +18234,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13">
       <c r="A397">
         <v>2020020396</v>
       </c>
@@ -18239,7 +18275,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13">
       <c r="A398">
         <v>2020020397</v>
       </c>
@@ -18280,7 +18316,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13">
       <c r="A399">
         <v>2020020398</v>
       </c>
@@ -18321,7 +18357,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13">
       <c r="A400">
         <v>2020020399</v>
       </c>
@@ -18362,7 +18398,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13">
       <c r="A401">
         <v>2020020400</v>
       </c>
@@ -18403,7 +18439,7 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13">
       <c r="A402">
         <v>2020020401</v>
       </c>
@@ -18444,7 +18480,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13">
       <c r="A403">
         <v>2020020402</v>
       </c>
@@ -18485,7 +18521,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13">
       <c r="A404">
         <v>2020020403</v>
       </c>
@@ -18526,7 +18562,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13">
       <c r="A405">
         <v>2020020404</v>
       </c>
@@ -18567,7 +18603,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13">
       <c r="A406">
         <v>2020020405</v>
       </c>
@@ -18608,7 +18644,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13">
       <c r="A407">
         <v>2020020406</v>
       </c>
@@ -18649,7 +18685,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13">
       <c r="A408">
         <v>2020020407</v>
       </c>
@@ -18690,7 +18726,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13">
       <c r="A409">
         <v>2020020408</v>
       </c>
@@ -18731,7 +18767,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13">
       <c r="A410">
         <v>2020020409</v>
       </c>
@@ -18772,7 +18808,7 @@
         <v>44264</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13">
       <c r="A411">
         <v>2020020410</v>
       </c>
@@ -18813,7 +18849,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13">
       <c r="A412">
         <v>2020020411</v>
       </c>
@@ -18854,7 +18890,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13">
       <c r="A413">
         <v>2020020412</v>
       </c>
@@ -18895,7 +18931,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13">
       <c r="A414">
         <v>2020020413</v>
       </c>
@@ -18936,7 +18972,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13">
       <c r="A415">
         <v>2020020414</v>
       </c>
@@ -18977,7 +19013,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13">
       <c r="A416">
         <v>2020020415</v>
       </c>
@@ -19018,7 +19054,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13">
       <c r="A417">
         <v>2020020416</v>
       </c>
@@ -19059,7 +19095,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13">
       <c r="A418">
         <v>2020020417</v>
       </c>
@@ -19100,7 +19136,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13">
       <c r="A419">
         <v>2020020418</v>
       </c>
@@ -19141,7 +19177,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13">
       <c r="A420">
         <v>2020020419</v>
       </c>
@@ -19182,7 +19218,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13">
       <c r="A421">
         <v>2020020420</v>
       </c>
@@ -19223,7 +19259,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13">
       <c r="A422">
         <v>2020020421</v>
       </c>
@@ -19264,7 +19300,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13">
       <c r="A423">
         <v>2020020422</v>
       </c>
@@ -19305,7 +19341,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13">
       <c r="A424">
         <v>2020020423</v>
       </c>
@@ -19346,7 +19382,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13">
       <c r="A425">
         <v>2020020424</v>
       </c>
@@ -19387,7 +19423,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13">
       <c r="A426">
         <v>2020020425</v>
       </c>
@@ -19428,7 +19464,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13">
       <c r="A427">
         <v>2020020426</v>
       </c>
@@ -19469,7 +19505,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13">
       <c r="A428">
         <v>2020020427</v>
       </c>
@@ -19510,7 +19546,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13">
       <c r="A429">
         <v>2020020428</v>
       </c>
@@ -19551,7 +19587,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13">
       <c r="A430">
         <v>2020020429</v>
       </c>
@@ -19592,7 +19628,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13">
       <c r="A431">
         <v>2020020430</v>
       </c>
@@ -19633,7 +19669,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13">
       <c r="A432">
         <v>2020020431</v>
       </c>
@@ -19674,7 +19710,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13">
       <c r="A433">
         <v>2020020432</v>
       </c>
@@ -19715,7 +19751,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13">
       <c r="A434">
         <v>2020020433</v>
       </c>
@@ -19756,7 +19792,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13">
       <c r="A435">
         <v>2020020434</v>
       </c>
@@ -19797,7 +19833,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13">
       <c r="A436">
         <v>2020020435</v>
       </c>
@@ -19838,7 +19874,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13">
       <c r="A437">
         <v>2020020436</v>
       </c>
@@ -19879,7 +19915,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13">
       <c r="A438">
         <v>2020020437</v>
       </c>
@@ -19920,7 +19956,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13">
       <c r="A439">
         <v>2020020438</v>
       </c>
@@ -19961,7 +19997,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13">
       <c r="A440">
         <v>2020020439</v>
       </c>
@@ -20002,7 +20038,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13">
       <c r="A441">
         <v>2020020440</v>
       </c>
@@ -20043,7 +20079,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13">
       <c r="A442">
         <v>2020020441</v>
       </c>
@@ -20084,7 +20120,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13">
       <c r="A443">
         <v>2020020442</v>
       </c>
@@ -20125,7 +20161,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13">
       <c r="A444">
         <v>2020020443</v>
       </c>
@@ -20166,7 +20202,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13">
       <c r="A445">
         <v>2020020444</v>
       </c>
@@ -20207,7 +20243,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13">
       <c r="A446">
         <v>2020020445</v>
       </c>
@@ -20248,7 +20284,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13">
       <c r="A447">
         <v>2020020446</v>
       </c>
@@ -20289,7 +20325,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13">
       <c r="A448">
         <v>2020020447</v>
       </c>
@@ -20330,7 +20366,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13">
       <c r="A449">
         <v>2020020448</v>
       </c>
@@ -20371,7 +20407,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13">
       <c r="A450">
         <v>2020020449</v>
       </c>
@@ -20412,7 +20448,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13">
       <c r="A451">
         <v>2020020450</v>
       </c>
@@ -20453,7 +20489,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13">
       <c r="A452">
         <v>2020020451</v>
       </c>
@@ -20494,7 +20530,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13">
       <c r="A453">
         <v>2020020452</v>
       </c>
@@ -20535,7 +20571,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13">
       <c r="A454">
         <v>2020020453</v>
       </c>
@@ -20576,7 +20612,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13">
       <c r="A455">
         <v>2020020454</v>
       </c>
@@ -20617,7 +20653,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13">
       <c r="A456">
         <v>2020020455</v>
       </c>
@@ -20658,7 +20694,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13">
       <c r="A457">
         <v>2020020456</v>
       </c>
@@ -20699,7 +20735,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13">
       <c r="A458">
         <v>2020020457</v>
       </c>
@@ -20740,7 +20776,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13">
       <c r="A459">
         <v>2020020458</v>
       </c>
@@ -20781,7 +20817,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13">
       <c r="A460">
         <v>2020020459</v>
       </c>
@@ -20822,7 +20858,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13">
       <c r="A461">
         <v>2020020460</v>
       </c>
@@ -20863,7 +20899,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13">
       <c r="A462">
         <v>2020020461</v>
       </c>
@@ -20904,7 +20940,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13">
       <c r="A463">
         <v>2020020462</v>
       </c>
@@ -20945,7 +20981,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13">
       <c r="A464">
         <v>2020020463</v>
       </c>
@@ -20986,7 +21022,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13">
       <c r="A465">
         <v>2020020464</v>
       </c>
@@ -21027,7 +21063,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13">
       <c r="A466">
         <v>2020020465</v>
       </c>
@@ -21068,7 +21104,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13">
       <c r="A467">
         <v>2020020466</v>
       </c>
@@ -21109,7 +21145,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13">
       <c r="A468">
         <v>2020020467</v>
       </c>
@@ -21150,7 +21186,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13">
       <c r="A469">
         <v>2020020468</v>
       </c>
@@ -21191,7 +21227,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13">
       <c r="A470">
         <v>2020020469</v>
       </c>
@@ -21232,7 +21268,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13">
       <c r="A471">
         <v>2020020470</v>
       </c>
@@ -21273,7 +21309,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13">
       <c r="A472">
         <v>2020020471</v>
       </c>
@@ -21314,7 +21350,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13">
       <c r="A473">
         <v>2020020472</v>
       </c>
@@ -21355,7 +21391,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13">
       <c r="A474">
         <v>2020020473</v>
       </c>
@@ -21396,7 +21432,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13">
       <c r="A475">
         <v>2020020474</v>
       </c>
@@ -21437,7 +21473,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13">
       <c r="A476">
         <v>2020020475</v>
       </c>
@@ -21478,7 +21514,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13">
       <c r="A477">
         <v>2020020476</v>
       </c>
@@ -21519,7 +21555,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13">
       <c r="A478">
         <v>2020020477</v>
       </c>
@@ -21560,7 +21596,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13">
       <c r="A479">
         <v>2020020478</v>
       </c>
@@ -21601,7 +21637,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13">
       <c r="A480">
         <v>2020020479</v>
       </c>
@@ -21642,7 +21678,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13">
       <c r="A481">
         <v>2020020480</v>
       </c>
@@ -21683,7 +21719,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13">
       <c r="A482">
         <v>2020020481</v>
       </c>
@@ -21724,7 +21760,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13">
       <c r="A483">
         <v>2020020482</v>
       </c>
@@ -21765,7 +21801,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13">
       <c r="A484">
         <v>2020020483</v>
       </c>
@@ -21806,7 +21842,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13">
       <c r="A485">
         <v>2020020484</v>
       </c>
@@ -21847,7 +21883,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13">
       <c r="A486">
         <v>2020020485</v>
       </c>
@@ -21888,7 +21924,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13">
       <c r="A487">
         <v>2020020486</v>
       </c>
@@ -21929,7 +21965,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13">
       <c r="A488">
         <v>2020020487</v>
       </c>
@@ -21970,7 +22006,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13">
       <c r="A489">
         <v>2020020488</v>
       </c>
@@ -22011,7 +22047,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13">
       <c r="A490">
         <v>2020020489</v>
       </c>
@@ -22052,7 +22088,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13">
       <c r="A491">
         <v>2020020490</v>
       </c>
@@ -22093,7 +22129,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13">
       <c r="A492">
         <v>2020020491</v>
       </c>
@@ -22134,7 +22170,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13">
       <c r="A493">
         <v>2020020492</v>
       </c>
@@ -22175,7 +22211,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13">
       <c r="A494">
         <v>2020020493</v>
       </c>
@@ -22216,7 +22252,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13">
       <c r="A495">
         <v>2020020494</v>
       </c>
@@ -22257,7 +22293,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13">
       <c r="A496">
         <v>2020020495</v>
       </c>
@@ -22298,7 +22334,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13">
       <c r="A497">
         <v>2020020496</v>
       </c>
@@ -22339,7 +22375,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13">
       <c r="A498">
         <v>2020020497</v>
       </c>
@@ -22380,7 +22416,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13">
       <c r="A499">
         <v>2020020498</v>
       </c>
@@ -22421,7 +22457,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13">
       <c r="A500">
         <v>2020020499</v>
       </c>
@@ -22462,7 +22498,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13">
       <c r="A501">
         <v>2020020500</v>
       </c>
@@ -22503,7 +22539,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13">
       <c r="A502">
         <v>2020020501</v>
       </c>
@@ -22544,7 +22580,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13">
       <c r="A503">
         <v>2020020502</v>
       </c>
@@ -22585,7 +22621,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13">
       <c r="A504">
         <v>2020020503</v>
       </c>
@@ -22626,7 +22662,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13">
       <c r="A505">
         <v>2020020504</v>
       </c>
@@ -22667,7 +22703,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13">
       <c r="A506">
         <v>2020020505</v>
       </c>
@@ -22708,7 +22744,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13">
       <c r="A507">
         <v>2020020506</v>
       </c>
@@ -22749,7 +22785,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13">
       <c r="A508">
         <v>2020020507</v>
       </c>
@@ -22790,7 +22826,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13">
       <c r="A509">
         <v>2020020508</v>
       </c>
@@ -22831,7 +22867,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13">
       <c r="A510">
         <v>2020020509</v>
       </c>
@@ -22872,7 +22908,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13">
       <c r="A511">
         <v>2020020510</v>
       </c>
@@ -22913,7 +22949,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13">
       <c r="A512">
         <v>2020020511</v>
       </c>
@@ -22954,7 +22990,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13">
       <c r="A513">
         <v>2020020512</v>
       </c>
@@ -22995,7 +23031,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13">
       <c r="A514">
         <v>2020020513</v>
       </c>
@@ -23036,7 +23072,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13">
       <c r="A515">
         <v>2020020514</v>
       </c>
@@ -23077,7 +23113,7 @@
         <v>44279</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13">
       <c r="A516">
         <v>2020020515</v>
       </c>
@@ -23118,7 +23154,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13">
       <c r="A517">
         <v>2020020516</v>
       </c>
@@ -23159,7 +23195,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13">
       <c r="A518">
         <v>2020020517</v>
       </c>
@@ -23200,7 +23236,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13">
       <c r="A519">
         <v>2020020518</v>
       </c>
@@ -23241,7 +23277,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13">
       <c r="A520">
         <v>2020020519</v>
       </c>
@@ -23282,7 +23318,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13">
       <c r="A521">
         <v>2020020520</v>
       </c>
@@ -23323,7 +23359,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13">
       <c r="A522">
         <v>2020020521</v>
       </c>
@@ -23364,7 +23400,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13">
       <c r="A523">
         <v>2020020522</v>
       </c>
@@ -23405,7 +23441,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13">
       <c r="A524">
         <v>2020020523</v>
       </c>
@@ -23446,7 +23482,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13">
       <c r="A525">
         <v>2020020524</v>
       </c>
@@ -23487,7 +23523,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13">
       <c r="A526">
         <v>2020020525</v>
       </c>
@@ -23528,7 +23564,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13">
       <c r="A527">
         <v>2020020526</v>
       </c>
@@ -23569,7 +23605,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13">
       <c r="A528">
         <v>2020020527</v>
       </c>
@@ -23610,7 +23646,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13">
       <c r="A529">
         <v>2020020528</v>
       </c>
@@ -23651,7 +23687,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13">
       <c r="A530">
         <v>2020020529</v>
       </c>
@@ -23692,7 +23728,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13">
       <c r="A531">
         <v>2020020530</v>
       </c>
@@ -23733,7 +23769,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13">
       <c r="A532">
         <v>2020020531</v>
       </c>
@@ -23774,7 +23810,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13">
       <c r="A533">
         <v>2020020532</v>
       </c>
@@ -23815,7 +23851,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13">
       <c r="A534">
         <v>2020020533</v>
       </c>
@@ -23856,7 +23892,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13">
       <c r="A535">
         <v>2020020534</v>
       </c>
@@ -23897,7 +23933,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13">
       <c r="A536">
         <v>2020020535</v>
       </c>
@@ -23938,7 +23974,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13">
       <c r="A537">
         <v>2020020536</v>
       </c>
@@ -23979,7 +24015,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13">
       <c r="A538">
         <v>2020020537</v>
       </c>
@@ -24020,7 +24056,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13">
       <c r="A539">
         <v>2020020538</v>
       </c>
@@ -24061,7 +24097,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13">
       <c r="A540">
         <v>2020020539</v>
       </c>
@@ -24102,7 +24138,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13">
       <c r="A541">
         <v>2020020540</v>
       </c>
@@ -24143,7 +24179,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13">
       <c r="A542">
         <v>2020020541</v>
       </c>
@@ -24184,7 +24220,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13">
       <c r="A543">
         <v>2020020542</v>
       </c>
@@ -24225,7 +24261,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13">
       <c r="A544">
         <v>2020020543</v>
       </c>
@@ -24266,7 +24302,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13">
       <c r="A545">
         <v>2020020544</v>
       </c>
@@ -24307,7 +24343,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13">
       <c r="A546">
         <v>2020020545</v>
       </c>
@@ -24348,7 +24384,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13">
       <c r="A547">
         <v>2020020546</v>
       </c>
@@ -24389,7 +24425,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13">
       <c r="A548">
         <v>2020020547</v>
       </c>
@@ -24430,7 +24466,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13">
       <c r="A549">
         <v>2020020548</v>
       </c>
@@ -24471,7 +24507,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13">
       <c r="A550">
         <v>2020020549</v>
       </c>
@@ -24512,7 +24548,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13">
       <c r="A551">
         <v>2020020550</v>
       </c>
@@ -24553,7 +24589,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13">
       <c r="A552">
         <v>2020020551</v>
       </c>
@@ -24594,7 +24630,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13">
       <c r="A553">
         <v>2020020552</v>
       </c>
@@ -24635,7 +24671,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13">
       <c r="A554">
         <v>2020020553</v>
       </c>
@@ -24676,7 +24712,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13">
       <c r="A555">
         <v>2020020554</v>
       </c>
@@ -24717,7 +24753,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13">
       <c r="A556">
         <v>2020020555</v>
       </c>
@@ -24758,7 +24794,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13">
       <c r="A557">
         <v>2020020556</v>
       </c>
@@ -24799,7 +24835,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13">
       <c r="A558">
         <v>2020020557</v>
       </c>
@@ -24840,7 +24876,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13">
       <c r="A559">
         <v>2020020558</v>
       </c>
@@ -24881,7 +24917,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13">
       <c r="A560">
         <v>2020020559</v>
       </c>
@@ -24922,7 +24958,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13">
       <c r="A561">
         <v>2020020560</v>
       </c>
@@ -24963,7 +24999,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13">
       <c r="A562">
         <v>2020020561</v>
       </c>
@@ -25004,7 +25040,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13">
       <c r="A563">
         <v>2020020562</v>
       </c>
@@ -25045,7 +25081,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13">
       <c r="A564">
         <v>2020020563</v>
       </c>
@@ -25086,7 +25122,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13">
       <c r="A565">
         <v>2020020564</v>
       </c>
@@ -25127,7 +25163,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13">
       <c r="A566">
         <v>2020020565</v>
       </c>
@@ -25168,7 +25204,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13">
       <c r="A567">
         <v>2020020566</v>
       </c>
@@ -25209,7 +25245,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13">
       <c r="A568">
         <v>2020020567</v>
       </c>
@@ -25250,7 +25286,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13">
       <c r="A569">
         <v>2020020568</v>
       </c>
@@ -25291,7 +25327,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13">
       <c r="A570">
         <v>2020020569</v>
       </c>
@@ -25332,7 +25368,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13">
       <c r="A571">
         <v>2020020570</v>
       </c>
@@ -25373,7 +25409,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13">
       <c r="A572">
         <v>2020020571</v>
       </c>
@@ -25414,7 +25450,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13">
       <c r="A573">
         <v>2020020572</v>
       </c>
@@ -25455,7 +25491,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13">
       <c r="A574">
         <v>2020020573</v>
       </c>
@@ -25496,7 +25532,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13">
       <c r="A575">
         <v>2020020574</v>
       </c>
@@ -25537,7 +25573,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13">
       <c r="A576">
         <v>2020020575</v>
       </c>
@@ -25578,7 +25614,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13">
       <c r="A577">
         <v>2020020576</v>
       </c>
@@ -25619,7 +25655,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13">
       <c r="A578">
         <v>2020020577</v>
       </c>
@@ -25660,7 +25696,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13">
       <c r="A579">
         <v>2020020578</v>
       </c>
@@ -25701,7 +25737,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13">
       <c r="A580">
         <v>2020020579</v>
       </c>
@@ -25742,7 +25778,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13">
       <c r="A581">
         <v>2020020580</v>
       </c>
@@ -25783,7 +25819,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13">
       <c r="A582">
         <v>2020020581</v>
       </c>
@@ -25824,7 +25860,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13">
       <c r="A583">
         <v>2020020582</v>
       </c>
@@ -25865,7 +25901,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13">
       <c r="A584">
         <v>2020020583</v>
       </c>
@@ -25906,7 +25942,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13">
       <c r="A585">
         <v>2020020584</v>
       </c>
@@ -25947,7 +25983,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13">
       <c r="A586">
         <v>2020020585</v>
       </c>
@@ -25988,7 +26024,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13">
       <c r="A587">
         <v>2020020586</v>
       </c>
@@ -26029,7 +26065,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13">
       <c r="A588">
         <v>2020020587</v>
       </c>
@@ -26070,7 +26106,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13">
       <c r="A589">
         <v>2020020588</v>
       </c>
@@ -26111,7 +26147,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13">
       <c r="A590">
         <v>2020020589</v>
       </c>
@@ -26152,7 +26188,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13">
       <c r="A591">
         <v>2020020590</v>
       </c>
@@ -26193,7 +26229,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13">
       <c r="A592">
         <v>2020020591</v>
       </c>
@@ -26234,7 +26270,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13">
       <c r="A593">
         <v>2020020592</v>
       </c>
@@ -26275,7 +26311,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13">
       <c r="A594">
         <v>2020020593</v>
       </c>
@@ -26316,7 +26352,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13">
       <c r="A595">
         <v>2020020594</v>
       </c>
@@ -26357,7 +26393,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13">
       <c r="A596">
         <v>2020020595</v>
       </c>
@@ -26398,7 +26434,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13">
       <c r="A597">
         <v>2020020596</v>
       </c>
@@ -26439,7 +26475,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13">
       <c r="A598">
         <v>2020020597</v>
       </c>
@@ -26480,7 +26516,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13">
       <c r="A599">
         <v>2020020598</v>
       </c>
@@ -26521,7 +26557,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13">
       <c r="A600">
         <v>2020020599</v>
       </c>
@@ -26562,7 +26598,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13">
       <c r="A601">
         <v>2020020600</v>
       </c>
@@ -26603,7 +26639,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13">
       <c r="A602">
         <v>2020020601</v>
       </c>
@@ -26644,7 +26680,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13">
       <c r="A603">
         <v>2020020602</v>
       </c>
@@ -26685,7 +26721,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13">
       <c r="A604">
         <v>2020020603</v>
       </c>
@@ -26726,7 +26762,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13">
       <c r="A605">
         <v>2020020604</v>
       </c>
@@ -26767,7 +26803,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13">
       <c r="A606">
         <v>2020020605</v>
       </c>
@@ -26808,7 +26844,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13">
       <c r="A607">
         <v>2020020606</v>
       </c>
@@ -26849,7 +26885,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13">
       <c r="A608">
         <v>2020020607</v>
       </c>
@@ -26890,7 +26926,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:13">
       <c r="A609">
         <v>2020020608</v>
       </c>
@@ -26931,7 +26967,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13">
       <c r="A610">
         <v>2020020609</v>
       </c>
@@ -26972,7 +27008,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:13">
       <c r="A611">
         <v>2020020610</v>
       </c>
@@ -27013,7 +27049,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:13">
       <c r="A612">
         <v>2020020611</v>
       </c>
@@ -27054,7 +27090,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13">
       <c r="A613">
         <v>2020020612</v>
       </c>
@@ -27095,7 +27131,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:13">
       <c r="A614">
         <v>2020020613</v>
       </c>
@@ -27136,7 +27172,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:13">
       <c r="A615">
         <v>2020020614</v>
       </c>
@@ -27177,7 +27213,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:13">
       <c r="A616">
         <v>2020020615</v>
       </c>
@@ -27218,7 +27254,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13">
       <c r="A617">
         <v>2020020616</v>
       </c>
@@ -27259,7 +27295,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13">
       <c r="A618">
         <v>2020020617</v>
       </c>
@@ -27300,7 +27336,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:13">
       <c r="A619">
         <v>2020020618</v>
       </c>
@@ -27341,7 +27377,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:13">
       <c r="A620">
         <v>2020020619</v>
       </c>
@@ -27382,7 +27418,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13">
       <c r="A621">
         <v>2020020620</v>
       </c>
@@ -27423,7 +27459,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:13">
       <c r="A622">
         <v>2020020621</v>
       </c>
@@ -27464,7 +27500,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:13">
       <c r="A623">
         <v>2020020622</v>
       </c>
@@ -27505,7 +27541,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:13">
       <c r="A624">
         <v>2020020623</v>
       </c>
@@ -27546,7 +27582,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13">
       <c r="A625">
         <v>2020020624</v>
       </c>
@@ -27587,7 +27623,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13">
       <c r="A626">
         <v>2020020625</v>
       </c>
@@ -27628,7 +27664,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:13">
       <c r="A627">
         <v>2020020626</v>
       </c>
@@ -27669,7 +27705,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13">
       <c r="A628">
         <v>2020020627</v>
       </c>
@@ -27710,7 +27746,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:13">
       <c r="A629">
         <v>2020020628</v>
       </c>
@@ -27751,7 +27787,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13">
       <c r="A630">
         <v>2020020629</v>
       </c>
@@ -27792,7 +27828,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13">
       <c r="A631">
         <v>2020020630</v>
       </c>
@@ -27833,7 +27869,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:13">
       <c r="A632">
         <v>2020020631</v>
       </c>
@@ -27874,7 +27910,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:13">
       <c r="A633">
         <v>2020020632</v>
       </c>
@@ -27915,7 +27951,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:13">
       <c r="A634">
         <v>2020020633</v>
       </c>
@@ -27956,7 +27992,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:13">
       <c r="A635">
         <v>2020020634</v>
       </c>
@@ -27997,7 +28033,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:13">
       <c r="A636">
         <v>2020020635</v>
       </c>
@@ -28038,7 +28074,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:13">
       <c r="A637">
         <v>2020020636</v>
       </c>
@@ -28079,7 +28115,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:13">
       <c r="A638">
         <v>2020020637</v>
       </c>
@@ -28120,7 +28156,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:13">
       <c r="A639">
         <v>2020020638</v>
       </c>
@@ -28161,7 +28197,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:13">
       <c r="A640">
         <v>2020020639</v>
       </c>
@@ -28202,7 +28238,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:13">
       <c r="A641">
         <v>2020020640</v>
       </c>
@@ -28243,7 +28279,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:13">
       <c r="A642">
         <v>2020020641</v>
       </c>
@@ -28284,7 +28320,7 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:13">
       <c r="A643">
         <v>2020020642</v>
       </c>
@@ -28325,7 +28361,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:13">
       <c r="A644">
         <v>2020020643</v>
       </c>
@@ -28366,7 +28402,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:13">
       <c r="A645">
         <v>2020020644</v>
       </c>
@@ -28407,7 +28443,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:13">
       <c r="A646">
         <v>2020020645</v>
       </c>
@@ -28448,7 +28484,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:13">
       <c r="A647">
         <v>2020020646</v>
       </c>
@@ -28489,7 +28525,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:13">
       <c r="A648">
         <v>2020020647</v>
       </c>
@@ -28530,7 +28566,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:13">
       <c r="A649">
         <v>2020020648</v>
       </c>
@@ -28571,7 +28607,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:13">
       <c r="A650">
         <v>2020020649</v>
       </c>
@@ -28612,7 +28648,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:13">
       <c r="A651">
         <v>2020020650</v>
       </c>
@@ -28653,7 +28689,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:13">
       <c r="A652">
         <v>2020020651</v>
       </c>
@@ -28694,7 +28730,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:13">
       <c r="A653">
         <v>2020020652</v>
       </c>
@@ -28735,7 +28771,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:13">
       <c r="A654">
         <v>2020020653</v>
       </c>
@@ -28776,7 +28812,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:13">
       <c r="A655">
         <v>2020020654</v>
       </c>
@@ -28817,7 +28853,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:13">
       <c r="A656">
         <v>2020020655</v>
       </c>
@@ -28858,7 +28894,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:13">
       <c r="A657">
         <v>2020020656</v>
       </c>
@@ -28899,7 +28935,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:13">
       <c r="A658">
         <v>2020020657</v>
       </c>
@@ -28940,7 +28976,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:13">
       <c r="A659">
         <v>2020020658</v>
       </c>
@@ -28981,7 +29017,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:13">
       <c r="A660">
         <v>2020020659</v>
       </c>
@@ -29022,7 +29058,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:13">
       <c r="A661">
         <v>2020020660</v>
       </c>
@@ -29063,7 +29099,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:13">
       <c r="A662">
         <v>2020020661</v>
       </c>
@@ -29104,7 +29140,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:13">
       <c r="A663">
         <v>2020020662</v>
       </c>
@@ -29145,7 +29181,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:13">
       <c r="A664">
         <v>2020020663</v>
       </c>
@@ -29186,7 +29222,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:13">
       <c r="A665">
         <v>2020020664</v>
       </c>
@@ -29227,7 +29263,7 @@
         <v>44298</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:13">
       <c r="A666">
         <v>2020020665</v>
       </c>
@@ -29268,7 +29304,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:13">
       <c r="A667">
         <v>2020020666</v>
       </c>
@@ -29309,7 +29345,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:13">
       <c r="A668">
         <v>2020020667</v>
       </c>
@@ -29350,7 +29386,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:13">
       <c r="A669">
         <v>2020020668</v>
       </c>
@@ -29391,7 +29427,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:13">
       <c r="A670">
         <v>2020020669</v>
       </c>
@@ -29432,7 +29468,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:13">
       <c r="A671">
         <v>2020020670</v>
       </c>
@@ -29473,7 +29509,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:13">
       <c r="A672">
         <v>2020020671</v>
       </c>
@@ -29514,7 +29550,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:13">
       <c r="A673">
         <v>2020020672</v>
       </c>
@@ -29555,7 +29591,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:13">
       <c r="A674">
         <v>2020020673</v>
       </c>
@@ -29596,7 +29632,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:13">
       <c r="A675">
         <v>2020020674</v>
       </c>
@@ -29637,7 +29673,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:13">
       <c r="A676">
         <v>2020020675</v>
       </c>
@@ -29678,7 +29714,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:13">
       <c r="A677">
         <v>2020020676</v>
       </c>
@@ -29719,7 +29755,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:13">
       <c r="A678">
         <v>2020020677</v>
       </c>
@@ -29760,7 +29796,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:13">
       <c r="A679">
         <v>2020020678</v>
       </c>
@@ -29801,7 +29837,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:13">
       <c r="A680">
         <v>2020020679</v>
       </c>
@@ -29842,7 +29878,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:13">
       <c r="A681">
         <v>2020020680</v>
       </c>
@@ -29883,7 +29919,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:13">
       <c r="A682">
         <v>2020020681</v>
       </c>
@@ -29924,7 +29960,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:13">
       <c r="A683">
         <v>2020020682</v>
       </c>
@@ -29965,7 +30001,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:13">
       <c r="A684">
         <v>2020020683</v>
       </c>
@@ -30006,7 +30042,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:13">
       <c r="A685">
         <v>2020020684</v>
       </c>
@@ -30047,7 +30083,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:13">
       <c r="A686">
         <v>2020020685</v>
       </c>
@@ -30088,7 +30124,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:13">
       <c r="A687">
         <v>2020020686</v>
       </c>
@@ -30129,7 +30165,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:13">
       <c r="A688">
         <v>2020020687</v>
       </c>
@@ -30170,7 +30206,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:13">
       <c r="A689">
         <v>2020020688</v>
       </c>
@@ -30211,7 +30247,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:13">
       <c r="A690">
         <v>2020020689</v>
       </c>
@@ -30252,7 +30288,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:13">
       <c r="A691">
         <v>2020020690</v>
       </c>
@@ -30293,7 +30329,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:13">
       <c r="A692">
         <v>2020020691</v>
       </c>
@@ -30334,7 +30370,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:13">
       <c r="A693">
         <v>2020020692</v>
       </c>
@@ -30375,7 +30411,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:13">
       <c r="A694">
         <v>2020020693</v>
       </c>
@@ -30416,7 +30452,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:13">
       <c r="A695">
         <v>2020020694</v>
       </c>
@@ -30457,7 +30493,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:13">
       <c r="A696">
         <v>2020020695</v>
       </c>
@@ -30498,7 +30534,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:13">
       <c r="A697">
         <v>2020020696</v>
       </c>
@@ -30539,7 +30575,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:13">
       <c r="A698">
         <v>2020020697</v>
       </c>
@@ -30580,7 +30616,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:13">
       <c r="A699">
         <v>2020020698</v>
       </c>
@@ -30621,7 +30657,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:13">
       <c r="A700">
         <v>2020020699</v>
       </c>
@@ -30662,7 +30698,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:13">
       <c r="A701">
         <v>2020020700</v>
       </c>
@@ -30703,7 +30739,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:13">
       <c r="A702">
         <v>2020020701</v>
       </c>
@@ -30744,7 +30780,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:13">
       <c r="A703">
         <v>2020020702</v>
       </c>
@@ -30785,7 +30821,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:13">
       <c r="A704">
         <v>2020020703</v>
       </c>
@@ -30826,7 +30862,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:13">
       <c r="A705">
         <v>2020020704</v>
       </c>
@@ -30867,7 +30903,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:13">
       <c r="A706">
         <v>2020020705</v>
       </c>
@@ -30908,7 +30944,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:13">
       <c r="A707">
         <v>2020020706</v>
       </c>
@@ -30949,7 +30985,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:13">
       <c r="A708">
         <v>2020020707</v>
       </c>
@@ -30990,7 +31026,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:13">
       <c r="A709">
         <v>2020020708</v>
       </c>
@@ -31031,7 +31067,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:13">
       <c r="A710">
         <v>2020020709</v>
       </c>
@@ -31072,7 +31108,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:13">
       <c r="A711">
         <v>2020020710</v>
       </c>
@@ -31113,7 +31149,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:13">
       <c r="A712">
         <v>2020020711</v>
       </c>
@@ -31154,7 +31190,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:13">
       <c r="A713">
         <v>2020020712</v>
       </c>
@@ -31195,7 +31231,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:13">
       <c r="A714">
         <v>2020020713</v>
       </c>
@@ -31236,7 +31272,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:13">
       <c r="A715">
         <v>2020020714</v>
       </c>
@@ -31277,7 +31313,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:13">
       <c r="A716">
         <v>2020020715</v>
       </c>
@@ -31318,7 +31354,7 @@
         <v>44305</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:13">
       <c r="A717">
         <v>2020020716</v>
       </c>
@@ -31359,7 +31395,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:13">
       <c r="A718">
         <v>2020020717</v>
       </c>
@@ -31400,7 +31436,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:13">
       <c r="A719">
         <v>2020020718</v>
       </c>
@@ -31441,7 +31477,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:13">
       <c r="A720">
         <v>2020020719</v>
       </c>
@@ -31482,7 +31518,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13">
       <c r="A721">
         <v>2020020720</v>
       </c>
@@ -31523,7 +31559,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13">
       <c r="A722">
         <v>2020020721</v>
       </c>
@@ -31564,7 +31600,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:13">
       <c r="A723">
         <v>2020020722</v>
       </c>
@@ -31605,7 +31641,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13">
       <c r="A724">
         <v>2020020723</v>
       </c>
@@ -31646,7 +31682,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:13">
       <c r="A725">
         <v>2020020724</v>
       </c>
@@ -31687,7 +31723,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13">
       <c r="A726">
         <v>2020020725</v>
       </c>
@@ -31728,7 +31764,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:13">
       <c r="A727">
         <v>2020020726</v>
       </c>
@@ -31769,7 +31805,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13">
       <c r="A728">
         <v>2020020727</v>
       </c>
@@ -31810,7 +31846,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13">
       <c r="A729">
         <v>2020020728</v>
       </c>
@@ -31851,7 +31887,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13">
       <c r="A730">
         <v>2020020729</v>
       </c>
@@ -31892,7 +31928,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:13">
       <c r="A731">
         <v>2020020730</v>
       </c>
@@ -31933,7 +31969,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13">
       <c r="A732">
         <v>2020020731</v>
       </c>
@@ -31974,7 +32010,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13">
       <c r="A733">
         <v>2020020732</v>
       </c>
@@ -32015,7 +32051,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13">
       <c r="A734">
         <v>2020020733</v>
       </c>
@@ -32056,7 +32092,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13">
       <c r="A735">
         <v>2020020734</v>
       </c>
@@ -32097,7 +32133,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13">
       <c r="A736">
         <v>2020020735</v>
       </c>
@@ -32138,7 +32174,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13">
       <c r="A737">
         <v>2020020736</v>
       </c>
@@ -32179,7 +32215,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:13">
       <c r="A738">
         <v>2020020737</v>
       </c>
@@ -32220,7 +32256,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:13">
       <c r="A739">
         <v>2020020738</v>
       </c>
@@ -32261,7 +32297,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:13">
       <c r="A740">
         <v>2020020739</v>
       </c>
@@ -32302,7 +32338,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13">
       <c r="A741">
         <v>2020020740</v>
       </c>
@@ -32343,7 +32379,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13">
       <c r="A742">
         <v>2020020741</v>
       </c>
@@ -32384,7 +32420,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13">
       <c r="A743">
         <v>2020020742</v>
       </c>
@@ -32425,7 +32461,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:13">
       <c r="A744">
         <v>2020020743</v>
       </c>
@@ -32466,7 +32502,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:13">
       <c r="A745">
         <v>2020020744</v>
       </c>
@@ -32507,7 +32543,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13">
       <c r="A746">
         <v>2020020745</v>
       </c>
@@ -32548,7 +32584,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:13">
       <c r="A747">
         <v>2020020746</v>
       </c>
@@ -32589,7 +32625,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13">
       <c r="A748">
         <v>2020020747</v>
       </c>
@@ -32630,7 +32666,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:13">
       <c r="A749">
         <v>2020020748</v>
       </c>
@@ -32671,7 +32707,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:13">
       <c r="A750">
         <v>2020020749</v>
       </c>
@@ -32712,7 +32748,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:13">
       <c r="A751">
         <v>2020020750</v>
       </c>
@@ -32753,7 +32789,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:13">
       <c r="A752">
         <v>2020020751</v>
       </c>
@@ -32794,7 +32830,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:13">
       <c r="A753">
         <v>2020020752</v>
       </c>
@@ -32835,7 +32871,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:13">
       <c r="A754">
         <v>2020020753</v>
       </c>
@@ -32876,7 +32912,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:13">
       <c r="A755">
         <v>2020020754</v>
       </c>
@@ -32917,7 +32953,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:13">
       <c r="A756">
         <v>2020020755</v>
       </c>
@@ -32958,7 +32994,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:13">
       <c r="A757">
         <v>2020020756</v>
       </c>
@@ -32999,7 +33035,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:13">
       <c r="A758">
         <v>2020020757</v>
       </c>
@@ -33040,7 +33076,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:13">
       <c r="A759">
         <v>2020020758</v>
       </c>
@@ -33081,7 +33117,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:13">
       <c r="A760">
         <v>2020020759</v>
       </c>
@@ -33122,7 +33158,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:13">
       <c r="A761">
         <v>2020020760</v>
       </c>
@@ -33163,7 +33199,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:13">
       <c r="A762">
         <v>2020020761</v>
       </c>
@@ -33204,7 +33240,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:13">
       <c r="A763">
         <v>2020020762</v>
       </c>
@@ -33245,7 +33281,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:13">
       <c r="A764">
         <v>2020020763</v>
       </c>
@@ -33286,7 +33322,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:13">
       <c r="A765">
         <v>2020020764</v>
       </c>
@@ -33327,7 +33363,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:13">
       <c r="A766">
         <v>2020020765</v>
       </c>
@@ -33368,7 +33404,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:13">
       <c r="A767">
         <v>2020020766</v>
       </c>
@@ -33409,7 +33445,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:13">
       <c r="A768">
         <v>2020020767</v>
       </c>
@@ -33450,7 +33486,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:13">
       <c r="A769">
         <v>2020020768</v>
       </c>
@@ -33491,7 +33527,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:13">
       <c r="A770">
         <v>2020020769</v>
       </c>
@@ -33532,7 +33568,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:13">
       <c r="A771">
         <v>2020020770</v>
       </c>
@@ -33573,7 +33609,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:13">
       <c r="A772">
         <v>2020020771</v>
       </c>
@@ -33614,7 +33650,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:13">
       <c r="A773">
         <v>2020020772</v>
       </c>
@@ -33655,7 +33691,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:13">
       <c r="A774">
         <v>2020020773</v>
       </c>
@@ -33696,7 +33732,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:13">
       <c r="A775">
         <v>2020020774</v>
       </c>
@@ -33737,7 +33773,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:13">
       <c r="A776">
         <v>2020020775</v>
       </c>
@@ -33778,7 +33814,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:13">
       <c r="A777">
         <v>2020020776</v>
       </c>
@@ -33819,7 +33855,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:13">
       <c r="A778">
         <v>2020020777</v>
       </c>
@@ -33860,7 +33896,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:13">
       <c r="A779">
         <v>2020020778</v>
       </c>
@@ -33901,7 +33937,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:13">
       <c r="A780">
         <v>2020020779</v>
       </c>
@@ -33942,7 +33978,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:13">
       <c r="A781">
         <v>2020020780</v>
       </c>
@@ -33983,7 +34019,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:13">
       <c r="A782">
         <v>2020020781</v>
       </c>
@@ -34024,7 +34060,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:13">
       <c r="A783">
         <v>2020020782</v>
       </c>
@@ -34065,7 +34101,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:13">
       <c r="A784">
         <v>2020020783</v>
       </c>
@@ -34106,7 +34142,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:13">
       <c r="A785">
         <v>2020020784</v>
       </c>
@@ -34147,7 +34183,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:13">
       <c r="A786">
         <v>2020020785</v>
       </c>
@@ -34188,7 +34224,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:13">
       <c r="A787">
         <v>2020020786</v>
       </c>
@@ -34229,7 +34265,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:13">
       <c r="A788">
         <v>2020020787</v>
       </c>
@@ -34270,7 +34306,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:13">
       <c r="A789">
         <v>2020020788</v>
       </c>
@@ -34311,7 +34347,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:13">
       <c r="A790">
         <v>2020020789</v>
       </c>
@@ -34352,7 +34388,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:13">
       <c r="A791">
         <v>2020020790</v>
       </c>
@@ -34393,7 +34429,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:13">
       <c r="A792">
         <v>2020020791</v>
       </c>
@@ -34434,7 +34470,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:13">
       <c r="A793">
         <v>2020020792</v>
       </c>
@@ -34475,7 +34511,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:13">
       <c r="A794">
         <v>2020020793</v>
       </c>
@@ -34516,7 +34552,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:13">
       <c r="A795">
         <v>2020020794</v>
       </c>
@@ -34557,7 +34593,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:13">
       <c r="A796">
         <v>2020020795</v>
       </c>
@@ -34598,7 +34634,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:13">
       <c r="A797">
         <v>2020020796</v>
       </c>
@@ -34639,7 +34675,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:13">
       <c r="A798">
         <v>2020020797</v>
       </c>
@@ -34680,7 +34716,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:13">
       <c r="A799">
         <v>2020020798</v>
       </c>
@@ -34721,7 +34757,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:13">
       <c r="A800">
         <v>2020020799</v>
       </c>
@@ -34762,7 +34798,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:13">
       <c r="A801">
         <v>2020020800</v>
       </c>
@@ -34803,7 +34839,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:13">
       <c r="A802">
         <v>2020020801</v>
       </c>
@@ -34844,7 +34880,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:13">
       <c r="A803">
         <v>2020020802</v>
       </c>
@@ -34885,7 +34921,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:13">
       <c r="A804">
         <v>2020020803</v>
       </c>
@@ -34926,7 +34962,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:13">
       <c r="A805">
         <v>2020020804</v>
       </c>
@@ -34967,7 +35003,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:13">
       <c r="A806">
         <v>2020020805</v>
       </c>
@@ -35008,7 +35044,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:13">
       <c r="A807">
         <v>2020020806</v>
       </c>
@@ -35049,7 +35085,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:13">
       <c r="A808">
         <v>2020020807</v>
       </c>
@@ -35090,7 +35126,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:13">
       <c r="A809">
         <v>2020020808</v>
       </c>
@@ -35131,7 +35167,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:13">
       <c r="A810">
         <v>2020020809</v>
       </c>
@@ -35172,7 +35208,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:13">
       <c r="A811">
         <v>2020020810</v>
       </c>
@@ -35213,7 +35249,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:13">
       <c r="A812">
         <v>2020020811</v>
       </c>
@@ -35254,7 +35290,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:13">
       <c r="A813">
         <v>2020020812</v>
       </c>
@@ -35295,7 +35331,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:13">
       <c r="A814">
         <v>2020020813</v>
       </c>
@@ -35336,7 +35372,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:13">
       <c r="A815">
         <v>2020020814</v>
       </c>
@@ -35377,7 +35413,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:13">
       <c r="A816">
         <v>2020020815</v>
       </c>
@@ -35418,7 +35454,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:13">
       <c r="A817">
         <v>2020020816</v>
       </c>
@@ -35459,7 +35495,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:13">
       <c r="A818">
         <v>2020020817</v>
       </c>
@@ -35500,7 +35536,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:13">
       <c r="A819">
         <v>2020020818</v>
       </c>
@@ -35541,7 +35577,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:13">
       <c r="A820">
         <v>2020020819</v>
       </c>
@@ -35582,7 +35618,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:13">
       <c r="A821">
         <v>2020020820</v>
       </c>
@@ -35623,7 +35659,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:13">
       <c r="A822">
         <v>2020020821</v>
       </c>
@@ -35664,7 +35700,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:13">
       <c r="A823">
         <v>2020020822</v>
       </c>
@@ -35705,7 +35741,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:13">
       <c r="A824">
         <v>2020020823</v>
       </c>
@@ -35746,7 +35782,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:13">
       <c r="A825">
         <v>2020020824</v>
       </c>
@@ -35787,7 +35823,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:13">
       <c r="A826">
         <v>2020020825</v>
       </c>
@@ -35828,7 +35864,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:13">
       <c r="A827">
         <v>2020020826</v>
       </c>
@@ -35869,7 +35905,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:13">
       <c r="A828">
         <v>2020020827</v>
       </c>
@@ -35910,7 +35946,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:13">
       <c r="A829">
         <v>2020020828</v>
       </c>
@@ -35951,7 +35987,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:13">
       <c r="A830">
         <v>2020020829</v>
       </c>
@@ -35992,7 +36028,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:13">
       <c r="A831">
         <v>2020020830</v>
       </c>
@@ -36033,7 +36069,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:13">
       <c r="A832">
         <v>2020020831</v>
       </c>
@@ -36074,7 +36110,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:13">
       <c r="A833">
         <v>2020020832</v>
       </c>
@@ -36115,7 +36151,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:13">
       <c r="A834">
         <v>2020020833</v>
       </c>
@@ -36156,7 +36192,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:13">
       <c r="A835">
         <v>2020020834</v>
       </c>
@@ -36197,7 +36233,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:13">
       <c r="A836">
         <v>2020020835</v>
       </c>
@@ -36238,7 +36274,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:13">
       <c r="A837">
         <v>2020020836</v>
       </c>
@@ -36279,7 +36315,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:13">
       <c r="A838">
         <v>2020020837</v>
       </c>
@@ -36320,7 +36356,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:13">
       <c r="A839">
         <v>2020020838</v>
       </c>
@@ -36361,7 +36397,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:13">
       <c r="A840">
         <v>2020020839</v>
       </c>
@@ -36402,7 +36438,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:13">
       <c r="A841">
         <v>2020020840</v>
       </c>
@@ -36443,7 +36479,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:13">
       <c r="A842">
         <v>2020020841</v>
       </c>
@@ -36484,7 +36520,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:13">
       <c r="A843">
         <v>2020020842</v>
       </c>
@@ -36525,7 +36561,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:13">
       <c r="A844">
         <v>2020020843</v>
       </c>
@@ -36566,7 +36602,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:13">
       <c r="A845">
         <v>2020020844</v>
       </c>
@@ -36607,7 +36643,7 @@
         <v>44322</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:13">
       <c r="A846">
         <v>2020020845</v>
       </c>
@@ -36648,7 +36684,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:13">
       <c r="A847">
         <v>2020020846</v>
       </c>
@@ -36689,7 +36725,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:13">
       <c r="A848">
         <v>2020020847</v>
       </c>
@@ -36730,7 +36766,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:13">
       <c r="A849">
         <v>2020020848</v>
       </c>
@@ -36771,7 +36807,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:13">
       <c r="A850">
         <v>2020020849</v>
       </c>
@@ -36812,7 +36848,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:13">
       <c r="A851">
         <v>2020020850</v>
       </c>
@@ -36853,7 +36889,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:13">
       <c r="A852">
         <v>2020020851</v>
       </c>
@@ -36894,7 +36930,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:13">
       <c r="A853">
         <v>2020020852</v>
       </c>
@@ -36935,7 +36971,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:13">
       <c r="A854">
         <v>2020020853</v>
       </c>
@@ -36976,7 +37012,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:13">
       <c r="A855">
         <v>2020020854</v>
       </c>
@@ -37017,7 +37053,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:13">
       <c r="A856">
         <v>2020020855</v>
       </c>
@@ -37058,7 +37094,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:13">
       <c r="A857">
         <v>2020020856</v>
       </c>
@@ -37099,7 +37135,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:13">
       <c r="A858">
         <v>2020020857</v>
       </c>
@@ -37140,7 +37176,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:13">
       <c r="A859">
         <v>2020020858</v>
       </c>
@@ -37181,7 +37217,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:13">
       <c r="A860">
         <v>2020020859</v>
       </c>
@@ -37222,7 +37258,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:13">
       <c r="A861">
         <v>2020020860</v>
       </c>
@@ -37263,7 +37299,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:13">
       <c r="A862">
         <v>2020020861</v>
       </c>
@@ -37304,7 +37340,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:13">
       <c r="A863">
         <v>2020020862</v>
       </c>
@@ -37345,7 +37381,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:13">
       <c r="A864">
         <v>2020020863</v>
       </c>
@@ -37386,7 +37422,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:13">
       <c r="A865">
         <v>2020020864</v>
       </c>
@@ -37427,7 +37463,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:13">
       <c r="A866">
         <v>2020020865</v>
       </c>
@@ -37468,7 +37504,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:13">
       <c r="A867">
         <v>2020020866</v>
       </c>
@@ -37509,7 +37545,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:13">
       <c r="A868">
         <v>2020020867</v>
       </c>
@@ -37550,7 +37586,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:13">
       <c r="A869">
         <v>2020020868</v>
       </c>

--- a/data/betting/20202021/dom_schedule_20202021_complete.xlsx
+++ b/data/betting/20202021/dom_schedule_20202021_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ColinWelsh/Documents/dev/hockey/data/betting/20202021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5514DD-232E-1A44-BA28-42B03C8600BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBDD180-F3CA-DC46-90F7-644DD893F7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="5440" windowWidth="14440" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6623" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="516">
   <si>
     <t>game_id</t>
   </si>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M869"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92:I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4621,7 +4621,7 @@
         <v>57</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I92" si="2">1-F65</f>
+        <f t="shared" ref="I65:I93" si="2">1-F65</f>
         <v>0.52100000000000002</v>
       </c>
       <c r="J65">
@@ -5786,20 +5786,21 @@
       <c r="E93" t="s">
         <v>57</v>
       </c>
-      <c r="F93" t="s">
-        <v>515</v>
-      </c>
-      <c r="G93" t="s">
-        <v>515</v>
+      <c r="F93">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="G93">
+        <v>132</v>
       </c>
       <c r="H93" t="s">
         <v>23</v>
       </c>
-      <c r="I93" t="s">
-        <v>515</v>
-      </c>
-      <c r="J93" t="s">
-        <v>515</v>
+      <c r="I93">
+        <f t="shared" si="2"/>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="J93">
+        <v>-156</v>
       </c>
       <c r="K93" t="s">
         <v>102</v>

--- a/data/betting/20202021/dom_schedule_20202021_complete.xlsx
+++ b/data/betting/20202021/dom_schedule_20202021_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ColinWelsh/Documents/dev/hockey/data/betting/20202021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBDD180-F3CA-DC46-90F7-644DD893F7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F0BC3C-14C2-A54F-AA5C-15AE39DE5D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="5440" windowWidth="14440" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6569" uniqueCount="516">
   <si>
     <t>game_id</t>
   </si>
@@ -1927,7 +1927,7 @@
   <dimension ref="A1:M869"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92:I93"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4621,7 +4621,7 @@
         <v>57</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I93" si="2">1-F65</f>
+        <f t="shared" ref="I65:I107" si="2">1-F65</f>
         <v>0.52100000000000002</v>
       </c>
       <c r="J65">
@@ -5828,20 +5828,21 @@
       <c r="E94" t="s">
         <v>14</v>
       </c>
-      <c r="F94" t="s">
-        <v>515</v>
-      </c>
-      <c r="G94" t="s">
-        <v>515</v>
+      <c r="F94">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G94">
+        <v>122</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
       </c>
-      <c r="I94" t="s">
-        <v>515</v>
-      </c>
-      <c r="J94" t="s">
-        <v>515</v>
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J94">
+        <v>-144</v>
       </c>
       <c r="K94" t="s">
         <v>103</v>
@@ -5869,20 +5870,21 @@
       <c r="E95" t="s">
         <v>35</v>
       </c>
-      <c r="F95" t="s">
-        <v>515</v>
-      </c>
-      <c r="G95" t="s">
-        <v>515</v>
+      <c r="F95">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G95">
+        <v>-106</v>
       </c>
       <c r="H95" t="s">
         <v>30</v>
       </c>
-      <c r="I95" t="s">
-        <v>515</v>
-      </c>
-      <c r="J95" t="s">
-        <v>515</v>
+      <c r="I95">
+        <f t="shared" si="2"/>
+        <v>0.46099999999999997</v>
+      </c>
+      <c r="J95">
+        <v>-110</v>
       </c>
       <c r="K95" t="s">
         <v>103</v>
@@ -5910,20 +5912,21 @@
       <c r="E96" t="s">
         <v>15</v>
       </c>
-      <c r="F96" t="s">
-        <v>515</v>
-      </c>
-      <c r="G96" t="s">
-        <v>515</v>
+      <c r="F96">
+        <v>0.628</v>
+      </c>
+      <c r="G96">
+        <v>-154</v>
       </c>
       <c r="H96" t="s">
         <v>33</v>
       </c>
-      <c r="I96" t="s">
-        <v>515</v>
-      </c>
-      <c r="J96" t="s">
-        <v>515</v>
+      <c r="I96">
+        <f t="shared" si="2"/>
+        <v>0.372</v>
+      </c>
+      <c r="J96">
+        <v>130</v>
       </c>
       <c r="K96" t="s">
         <v>103</v>
@@ -5951,20 +5954,21 @@
       <c r="E97" t="s">
         <v>34</v>
       </c>
-      <c r="F97" t="s">
-        <v>515</v>
-      </c>
-      <c r="G97" t="s">
-        <v>515</v>
+      <c r="F97">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G97">
+        <v>-142</v>
       </c>
       <c r="H97" t="s">
         <v>29</v>
       </c>
-      <c r="I97" t="s">
-        <v>515</v>
-      </c>
-      <c r="J97" t="s">
-        <v>515</v>
+      <c r="I97">
+        <f t="shared" si="2"/>
+        <v>0.46199999999999997</v>
+      </c>
+      <c r="J97">
+        <v>120</v>
       </c>
       <c r="K97" t="s">
         <v>103</v>
@@ -6033,20 +6037,21 @@
       <c r="E99" t="s">
         <v>37</v>
       </c>
-      <c r="F99" t="s">
-        <v>515</v>
-      </c>
-      <c r="G99" t="s">
-        <v>515</v>
+      <c r="F99">
+        <v>0.498</v>
+      </c>
+      <c r="G99">
+        <v>118</v>
       </c>
       <c r="H99" t="s">
         <v>42</v>
       </c>
-      <c r="I99" t="s">
-        <v>515</v>
-      </c>
-      <c r="J99" t="s">
-        <v>515</v>
+      <c r="I99">
+        <f t="shared" si="2"/>
+        <v>0.502</v>
+      </c>
+      <c r="J99">
+        <v>-138</v>
       </c>
       <c r="K99" t="s">
         <v>103</v>
@@ -6074,20 +6079,21 @@
       <c r="E100" t="s">
         <v>17</v>
       </c>
-      <c r="F100" t="s">
-        <v>515</v>
-      </c>
-      <c r="G100" t="s">
-        <v>515</v>
+      <c r="F100">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G100">
+        <v>156</v>
       </c>
       <c r="H100" t="s">
         <v>43</v>
       </c>
-      <c r="I100" t="s">
-        <v>515</v>
-      </c>
-      <c r="J100" t="s">
-        <v>515</v>
+      <c r="I100">
+        <f t="shared" si="2"/>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="J100">
+        <v>-186</v>
       </c>
       <c r="K100" t="s">
         <v>104</v>
@@ -6115,20 +6121,21 @@
       <c r="E101" t="s">
         <v>24</v>
       </c>
-      <c r="F101" t="s">
-        <v>515</v>
-      </c>
-      <c r="G101" t="s">
-        <v>515</v>
+      <c r="F101">
+        <v>0.53</v>
+      </c>
+      <c r="G101">
+        <v>-120</v>
       </c>
       <c r="H101" t="s">
         <v>46</v>
       </c>
-      <c r="I101" t="s">
-        <v>515</v>
-      </c>
-      <c r="J101" t="s">
-        <v>515</v>
+      <c r="I101">
+        <f t="shared" si="2"/>
+        <v>0.47</v>
+      </c>
+      <c r="J101">
+        <v>102</v>
       </c>
       <c r="K101" t="s">
         <v>104</v>
@@ -6156,20 +6163,21 @@
       <c r="E102" t="s">
         <v>21</v>
       </c>
-      <c r="F102" t="s">
-        <v>515</v>
-      </c>
-      <c r="G102" t="s">
-        <v>515</v>
+      <c r="F102">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="G102">
+        <v>-118</v>
       </c>
       <c r="H102" t="s">
         <v>45</v>
       </c>
-      <c r="I102" t="s">
-        <v>515</v>
-      </c>
-      <c r="J102" t="s">
-        <v>515</v>
+      <c r="I102">
+        <f t="shared" si="2"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J102">
+        <v>100</v>
       </c>
       <c r="K102" t="s">
         <v>105</v>
@@ -6197,8 +6205,8 @@
       <c r="E103" t="s">
         <v>54</v>
       </c>
-      <c r="F103" t="s">
-        <v>515</v>
+      <c r="F103">
+        <v>0.38800000000000001</v>
       </c>
       <c r="G103" t="s">
         <v>515</v>
@@ -6206,8 +6214,9 @@
       <c r="H103" t="s">
         <v>53</v>
       </c>
-      <c r="I103" t="s">
-        <v>515</v>
+      <c r="I103">
+        <f t="shared" si="2"/>
+        <v>0.61199999999999999</v>
       </c>
       <c r="J103" t="s">
         <v>515</v>
@@ -6238,20 +6247,21 @@
       <c r="E104" t="s">
         <v>40</v>
       </c>
-      <c r="F104" t="s">
-        <v>515</v>
-      </c>
-      <c r="G104" t="s">
-        <v>515</v>
+      <c r="F104">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G104">
+        <v>180</v>
       </c>
       <c r="H104" t="s">
         <v>36</v>
       </c>
-      <c r="I104" t="s">
-        <v>515</v>
-      </c>
-      <c r="J104" t="s">
-        <v>515</v>
+      <c r="I104">
+        <f t="shared" si="2"/>
+        <v>0.66599999999999993</v>
+      </c>
+      <c r="J104">
+        <v>-215</v>
       </c>
       <c r="K104" t="s">
         <v>106</v>
@@ -6279,20 +6289,21 @@
       <c r="E105" t="s">
         <v>48</v>
       </c>
-      <c r="F105" t="s">
-        <v>515</v>
-      </c>
-      <c r="G105" t="s">
-        <v>515</v>
+      <c r="F105">
+        <v>0.314</v>
+      </c>
+      <c r="G105">
+        <v>198</v>
       </c>
       <c r="H105" t="s">
         <v>27</v>
       </c>
-      <c r="I105" t="s">
-        <v>515</v>
-      </c>
-      <c r="J105" t="s">
-        <v>515</v>
+      <c r="I105">
+        <f t="shared" si="2"/>
+        <v>0.68599999999999994</v>
+      </c>
+      <c r="J105">
+        <v>-240</v>
       </c>
       <c r="K105" t="s">
         <v>105</v>
@@ -6320,20 +6331,21 @@
       <c r="E106" t="s">
         <v>50</v>
       </c>
-      <c r="F106" t="s">
-        <v>515</v>
-      </c>
-      <c r="G106" t="s">
-        <v>515</v>
+      <c r="F106">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G106">
+        <v>120</v>
       </c>
       <c r="H106" t="s">
         <v>49</v>
       </c>
-      <c r="I106" t="s">
-        <v>515</v>
-      </c>
-      <c r="J106" t="s">
-        <v>515</v>
+      <c r="I106">
+        <f t="shared" si="2"/>
+        <v>0.55099999999999993</v>
+      </c>
+      <c r="J106">
+        <v>-142</v>
       </c>
       <c r="K106" t="s">
         <v>105</v>
@@ -6361,20 +6373,21 @@
       <c r="E107" t="s">
         <v>26</v>
       </c>
-      <c r="F107" t="s">
-        <v>515</v>
-      </c>
-      <c r="G107" t="s">
-        <v>515</v>
+      <c r="F107">
+        <v>0.443</v>
+      </c>
+      <c r="G107">
+        <v>136</v>
       </c>
       <c r="H107" t="s">
         <v>51</v>
       </c>
-      <c r="I107" t="s">
-        <v>515</v>
-      </c>
-      <c r="J107" t="s">
-        <v>515</v>
+      <c r="I107">
+        <f t="shared" si="2"/>
+        <v>0.55699999999999994</v>
+      </c>
+      <c r="J107">
+        <v>-162</v>
       </c>
       <c r="K107" t="s">
         <v>105</v>
